--- a/data_month/zb/价格指数/居民消费价格分类指数(上年同期=100)/农村居民消费价格分类指数(上年同期=100)(-2015).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上年同期=100)/农村居民消费价格分类指数(上年同期=100)(-2015).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,43 +483,43 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>99.7</v>
+        <v>99.3</v>
       </c>
       <c r="D2" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="E2" t="n">
-        <v>97.5</v>
+        <v>96.5</v>
       </c>
       <c r="F2" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="G2" t="n">
-        <v>102.7</v>
+        <v>101.7</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>98.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C3" t="n">
         <v>99.8</v>
@@ -528,126 +528,126 @@
         <v>100.5</v>
       </c>
       <c r="E3" t="n">
-        <v>97.8</v>
+        <v>96.5</v>
       </c>
       <c r="F3" t="n">
-        <v>97.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>102.7</v>
+        <v>101.8</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>98.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>97.3</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="D4" t="n">
-        <v>100.6</v>
+        <v>100.3</v>
       </c>
       <c r="E4" t="n">
-        <v>98.09999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>97.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>102.8</v>
+        <v>102</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>98.59999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年1月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.09999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="C5" t="n">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="E5" t="n">
         <v>96.5</v>
       </c>
       <c r="F5" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>101.7</v>
+        <v>102.2</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="J5" t="n">
-        <v>96.8</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94.09999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="C6" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="E6" t="n">
         <v>96.5</v>
       </c>
       <c r="F6" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="G6" t="n">
-        <v>101.8</v>
+        <v>102.5</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="J6" t="n">
-        <v>97.8</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="C7" t="n">
         <v>99.7</v>
@@ -656,94 +656,94 @@
         <v>100.3</v>
       </c>
       <c r="E7" t="n">
-        <v>96.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="G7" t="n">
-        <v>102</v>
+        <v>102.7</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>97.59999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>97.59999999999999</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="C8" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="D8" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="E8" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="G8" t="n">
-        <v>102.2</v>
+        <v>102.8</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>97.7</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>97.3</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="C9" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="D9" t="n">
         <v>100.3</v>
       </c>
       <c r="E9" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="G9" t="n">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>97.8</v>
+        <v>98.2</v>
       </c>
       <c r="J9" t="n">
-        <v>97.2</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C10" t="n">
         <v>99.7</v>
@@ -752,17 +752,17 @@
         <v>100.3</v>
       </c>
       <c r="E10" t="n">
-        <v>96.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="G10" t="n">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>97.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="J10" t="n">
         <v>97.3</v>
@@ -771,52 +771,52 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C11" t="n">
         <v>99.7</v>
       </c>
       <c r="D11" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="E11" t="n">
-        <v>96.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="F11" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="G11" t="n">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>98.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>97.40000000000001</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="D12" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="E12" t="n">
-        <v>96.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="F12" t="n">
         <v>97.8</v>
@@ -826,549 +826,549 @@
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
       <c r="J12" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>93.59999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3</v>
+        <v>100.6</v>
       </c>
       <c r="E13" t="n">
-        <v>97.09999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F13" t="n">
         <v>97.8</v>
       </c>
       <c r="G13" t="n">
-        <v>102.6</v>
+        <v>102.8</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>98.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>98.90000000000001</v>
+        <v>101.0456</v>
       </c>
       <c r="C14" t="n">
-        <v>100.9</v>
+        <v>101.0023</v>
       </c>
       <c r="D14" t="n">
-        <v>101.2</v>
+        <v>101.1883</v>
       </c>
       <c r="E14" t="n">
-        <v>107</v>
+        <v>106.2146</v>
       </c>
       <c r="F14" t="n">
-        <v>98.40000000000001</v>
+        <v>98.642</v>
       </c>
       <c r="G14" t="n">
-        <v>100.3</v>
+        <v>101</v>
       </c>
       <c r="H14" t="n">
-        <v>99.5</v>
+        <v>99.34569999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>99</v>
+        <v>99.73699999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>99.5479</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>98.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C15" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>107.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="G15" t="n">
         <v>100.9</v>
       </c>
-      <c r="D15" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>106.6</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="J15" t="n">
         <v>98.40000000000001</v>
-      </c>
-      <c r="G15" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="I15" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="J15" t="n">
-        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C16" t="n">
         <v>100.8</v>
       </c>
       <c r="D16" t="n">
-        <v>101.1</v>
+        <v>101.3</v>
       </c>
       <c r="E16" t="n">
-        <v>106.4</v>
+        <v>107.6</v>
       </c>
       <c r="F16" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="G16" t="n">
-        <v>100.3</v>
+        <v>100.8</v>
       </c>
       <c r="H16" t="n">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="I16" t="n">
-        <v>98.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="J16" t="n">
-        <v>99.8</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年1月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>101.0456</v>
+        <v>99.3</v>
       </c>
       <c r="C17" t="n">
-        <v>101.0023</v>
+        <v>100.9</v>
       </c>
       <c r="D17" t="n">
-        <v>101.1883</v>
+        <v>101.3</v>
       </c>
       <c r="E17" t="n">
-        <v>106.2146</v>
+        <v>107.8</v>
       </c>
       <c r="F17" t="n">
-        <v>98.642</v>
+        <v>98.5</v>
       </c>
       <c r="G17" t="n">
-        <v>101</v>
+        <v>100.7</v>
       </c>
       <c r="H17" t="n">
-        <v>99.34569999999999</v>
+        <v>99.3</v>
       </c>
       <c r="I17" t="n">
-        <v>99.73699999999999</v>
+        <v>99.2</v>
       </c>
       <c r="J17" t="n">
-        <v>99.5479</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="C18" t="n">
+        <v>101</v>
+      </c>
+      <c r="D18" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>107.8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="G18" t="n">
         <v>100.7</v>
       </c>
-      <c r="D18" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="E18" t="n">
-        <v>107.3</v>
-      </c>
-      <c r="F18" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="G18" t="n">
-        <v>100.9</v>
-      </c>
       <c r="H18" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>98.40000000000001</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="C19" t="n">
-        <v>100.8</v>
+        <v>101.1</v>
       </c>
       <c r="D19" t="n">
         <v>101.3</v>
       </c>
       <c r="E19" t="n">
-        <v>107.6</v>
+        <v>107.9</v>
       </c>
       <c r="F19" t="n">
         <v>98.5</v>
       </c>
       <c r="G19" t="n">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="H19" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>98.7</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="D20" t="n">
         <v>101.3</v>
       </c>
       <c r="E20" t="n">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="F20" t="n">
         <v>98.5</v>
       </c>
       <c r="G20" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="H20" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>99.2</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="C21" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="D21" t="n">
         <v>101.3</v>
       </c>
       <c r="E21" t="n">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="F21" t="n">
         <v>98.5</v>
       </c>
       <c r="G21" t="n">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
       <c r="H21" t="n">
         <v>99.40000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="J21" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="D22" t="n">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="E22" t="n">
-        <v>107.9</v>
+        <v>107.4</v>
       </c>
       <c r="F22" t="n">
         <v>98.5</v>
       </c>
       <c r="G22" t="n">
-        <v>100.6</v>
+        <v>100.3</v>
       </c>
       <c r="H22" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="I22" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="J22" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="D23" t="n">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="E23" t="n">
-        <v>107.9</v>
+        <v>107</v>
       </c>
       <c r="F23" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>100.6</v>
+        <v>100.3</v>
       </c>
       <c r="H23" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="I23" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="J23" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="C24" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="D24" t="n">
         <v>101.1</v>
       </c>
-      <c r="D24" t="n">
-        <v>101.3</v>
-      </c>
       <c r="E24" t="n">
-        <v>107.9</v>
+        <v>106.6</v>
       </c>
       <c r="F24" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="H24" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="C25" t="n">
-        <v>101</v>
+        <v>100.8</v>
       </c>
       <c r="D25" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="E25" t="n">
-        <v>107.4</v>
+        <v>106.4</v>
       </c>
       <c r="F25" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G25" t="n">
         <v>100.3</v>
       </c>
       <c r="H25" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I25" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>98.09999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="C26" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="E26" t="n">
-        <v>101.3</v>
+        <v>103.4</v>
       </c>
       <c r="F26" t="n">
-        <v>97.8</v>
+        <v>98</v>
       </c>
       <c r="G26" t="n">
-        <v>100.3</v>
+        <v>100.8</v>
       </c>
       <c r="H26" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="I26" t="n">
         <v>98.40000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>99.09999999999999</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>98.2</v>
+        <v>97.5</v>
       </c>
       <c r="C27" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="D27" t="n">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="E27" t="n">
-        <v>101.2</v>
+        <v>102.2</v>
       </c>
       <c r="F27" t="n">
-        <v>97.8</v>
+        <v>98</v>
       </c>
       <c r="G27" t="n">
-        <v>100.2</v>
+        <v>100.9</v>
       </c>
       <c r="H27" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="I27" t="n">
-        <v>98.40000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="J27" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.2</v>
+        <v>98</v>
       </c>
       <c r="C28" t="n">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="E28" t="n">
-        <v>101.2</v>
+        <v>101.8</v>
       </c>
       <c r="F28" t="n">
-        <v>97.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>100.1</v>
+        <v>100.8</v>
       </c>
       <c r="H28" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="I28" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="J28" t="n">
         <v>99.3</v>
@@ -1377,20 +1377,20 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年1月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>95.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="D29" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="E29" t="n">
-        <v>103.4</v>
+        <v>101.6</v>
       </c>
       <c r="F29" t="n">
         <v>98</v>
@@ -1399,146 +1399,146 @@
         <v>100.8</v>
       </c>
       <c r="H29" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="I29" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>98.2</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>97.5</v>
+        <v>98.2</v>
       </c>
       <c r="C30" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D30" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="E30" t="n">
-        <v>102.2</v>
+        <v>101.5</v>
       </c>
       <c r="F30" t="n">
         <v>98</v>
       </c>
       <c r="G30" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="H30" t="n">
         <v>100.3</v>
       </c>
       <c r="I30" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>99.3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B31" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="C31" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D31" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="F31" t="n">
         <v>98</v>
       </c>
-      <c r="C31" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="D31" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="E31" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="F31" t="n">
-        <v>98.09999999999999</v>
-      </c>
       <c r="G31" t="n">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="H31" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="I31" t="n">
         <v>98.59999999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>99.3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="D32" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="E32" t="n">
-        <v>101.6</v>
+        <v>101.3</v>
       </c>
       <c r="F32" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>100.8</v>
+        <v>100.5</v>
       </c>
       <c r="H32" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="I32" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="J32" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D33" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="G33" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="H33" t="n">
         <v>100.2</v>
       </c>
-      <c r="E33" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="F33" t="n">
-        <v>98</v>
-      </c>
-      <c r="G33" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="H33" t="n">
-        <v>100.3</v>
-      </c>
       <c r="I33" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="J33" t="n">
         <v>99</v>
@@ -1547,32 +1547,32 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="E34" t="n">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="F34" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>100.6</v>
+        <v>100.3</v>
       </c>
       <c r="H34" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="I34" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="J34" t="n">
         <v>99</v>
@@ -1581,14 +1581,14 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D35" t="n">
         <v>100.1</v>
@@ -1597,29 +1597,29 @@
         <v>101.3</v>
       </c>
       <c r="F35" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="G35" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="H35" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="I35" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="C36" t="n">
         <v>99.59999999999999</v>
@@ -1628,32 +1628,32 @@
         <v>100.1</v>
       </c>
       <c r="E36" t="n">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="F36" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="G36" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="H36" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="I36" t="n">
         <v>98.40000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>99</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="C37" t="n">
         <v>99.59999999999999</v>
@@ -1662,223 +1662,223 @@
         <v>100.1</v>
       </c>
       <c r="E37" t="n">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="F37" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="G37" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="H37" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="I37" t="n">
         <v>98.40000000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>99</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>98.59999999999999</v>
+        <v>99.41</v>
       </c>
       <c r="C38" t="n">
-        <v>101.1</v>
+        <v>100.31</v>
       </c>
       <c r="D38" t="n">
-        <v>102.4</v>
+        <v>100.39</v>
       </c>
       <c r="E38" t="n">
-        <v>102.8</v>
+        <v>101.04</v>
       </c>
       <c r="F38" t="n">
-        <v>98.3</v>
+        <v>97.84</v>
       </c>
       <c r="G38" t="n">
-        <v>100.4</v>
+        <v>99.58</v>
       </c>
       <c r="H38" t="n">
-        <v>99.8</v>
+        <v>99.66</v>
       </c>
       <c r="I38" t="n">
-        <v>98.5</v>
+        <v>98.25</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2</v>
+        <v>101.66</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>98.5834</v>
+        <v>98.7046</v>
       </c>
       <c r="C39" t="n">
-        <v>101.3314</v>
+        <v>100.3018</v>
       </c>
       <c r="D39" t="n">
-        <v>102.4498</v>
+        <v>100.4787</v>
       </c>
       <c r="E39" t="n">
-        <v>102.7815</v>
+        <v>101.9423</v>
       </c>
       <c r="F39" t="n">
-        <v>98.29859999999999</v>
+        <v>97.84350000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>100.68</v>
+        <v>99.52</v>
       </c>
       <c r="H39" t="n">
-        <v>99.8562</v>
+        <v>99.6356</v>
       </c>
       <c r="I39" t="n">
-        <v>98.56229999999999</v>
+        <v>98.09690000000001</v>
       </c>
       <c r="J39" t="n">
-        <v>102.831</v>
+        <v>101.3817</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>98.6066</v>
+        <v>98.55</v>
       </c>
       <c r="C40" t="n">
-        <v>101.5626</v>
+        <v>100.4527</v>
       </c>
       <c r="D40" t="n">
-        <v>102.4824</v>
+        <v>100.5822</v>
       </c>
       <c r="E40" t="n">
-        <v>102.7597</v>
+        <v>102.3757</v>
       </c>
       <c r="F40" t="n">
-        <v>98.3473</v>
+        <v>97.8554</v>
       </c>
       <c r="G40" t="n">
-        <v>100.98</v>
+        <v>99.67</v>
       </c>
       <c r="H40" t="n">
-        <v>99.9258</v>
+        <v>99.59990000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>98.5705</v>
+        <v>98.1139</v>
       </c>
       <c r="J40" t="n">
-        <v>103.3942</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年1月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.41</v>
+        <v>98.53870000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>100.31</v>
+        <v>100.6044</v>
       </c>
       <c r="D41" t="n">
-        <v>100.39</v>
+        <v>101.0772</v>
       </c>
       <c r="E41" t="n">
-        <v>101.04</v>
+        <v>102.5757</v>
       </c>
       <c r="F41" t="n">
-        <v>97.84</v>
+        <v>97.90389999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>99.58</v>
+        <v>99.76000000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>99.66</v>
+        <v>99.59990000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>98.25</v>
+        <v>98.1855</v>
       </c>
       <c r="J41" t="n">
-        <v>101.66</v>
+        <v>101.7512</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>98.7046</v>
+        <v>98.4803</v>
       </c>
       <c r="C42" t="n">
-        <v>100.3018</v>
+        <v>100.6685</v>
       </c>
       <c r="D42" t="n">
-        <v>100.4787</v>
+        <v>101.5769</v>
       </c>
       <c r="E42" t="n">
-        <v>101.9423</v>
+        <v>102.6876</v>
       </c>
       <c r="F42" t="n">
-        <v>97.84350000000001</v>
+        <v>97.9406</v>
       </c>
       <c r="G42" t="n">
-        <v>99.52</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>99.6356</v>
+        <v>99.5771</v>
       </c>
       <c r="I42" t="n">
-        <v>98.09690000000001</v>
+        <v>98.2226</v>
       </c>
       <c r="J42" t="n">
-        <v>101.3817</v>
+        <v>101.7128</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.55</v>
+        <v>98.5</v>
       </c>
       <c r="C43" t="n">
-        <v>100.4527</v>
+        <v>100.7</v>
       </c>
       <c r="D43" t="n">
-        <v>100.5822</v>
+        <v>101.9</v>
       </c>
       <c r="E43" t="n">
-        <v>102.3757</v>
+        <v>102.8</v>
       </c>
       <c r="F43" t="n">
-        <v>97.8554</v>
+        <v>98</v>
       </c>
       <c r="G43" t="n">
-        <v>99.67</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>99.59990000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I43" t="n">
-        <v>98.1139</v>
+        <v>98.3</v>
       </c>
       <c r="J43" t="n">
         <v>101.6</v>
@@ -1887,5101 +1887,5101 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>98.53870000000001</v>
+        <v>98.5087</v>
       </c>
       <c r="C44" t="n">
-        <v>100.6044</v>
+        <v>100.7658</v>
       </c>
       <c r="D44" t="n">
-        <v>101.0772</v>
+        <v>102.1368</v>
       </c>
       <c r="E44" t="n">
-        <v>102.5757</v>
+        <v>102.8537</v>
       </c>
       <c r="F44" t="n">
-        <v>97.90389999999999</v>
+        <v>98.1071</v>
       </c>
       <c r="G44" t="n">
-        <v>99.76000000000001</v>
+        <v>100</v>
       </c>
       <c r="H44" t="n">
-        <v>99.59990000000001</v>
+        <v>99.6778</v>
       </c>
       <c r="I44" t="n">
-        <v>98.1855</v>
+        <v>98.40940000000001</v>
       </c>
       <c r="J44" t="n">
-        <v>101.7512</v>
+        <v>101.5642</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>98.4803</v>
+        <v>98.5478</v>
       </c>
       <c r="C45" t="n">
-        <v>100.6685</v>
+        <v>100.8499</v>
       </c>
       <c r="D45" t="n">
-        <v>101.5769</v>
+        <v>102.2745</v>
       </c>
       <c r="E45" t="n">
-        <v>102.6876</v>
+        <v>102.9109</v>
       </c>
       <c r="F45" t="n">
-        <v>97.9406</v>
+        <v>98.1641</v>
       </c>
       <c r="G45" t="n">
-        <v>99.81999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="H45" t="n">
-        <v>99.5771</v>
+        <v>99.724</v>
       </c>
       <c r="I45" t="n">
-        <v>98.2226</v>
+        <v>98.46639999999999</v>
       </c>
       <c r="J45" t="n">
-        <v>101.7128</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>98.5</v>
+        <v>98.5667</v>
       </c>
       <c r="C46" t="n">
-        <v>100.7</v>
+        <v>100.9277</v>
       </c>
       <c r="D46" t="n">
-        <v>101.9</v>
+        <v>102.374</v>
       </c>
       <c r="E46" t="n">
-        <v>102.8</v>
+        <v>102.85</v>
       </c>
       <c r="F46" t="n">
-        <v>98</v>
+        <v>98.2128</v>
       </c>
       <c r="G46" t="n">
-        <v>99.90000000000001</v>
+        <v>100.17</v>
       </c>
       <c r="H46" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7582</v>
       </c>
       <c r="I46" t="n">
-        <v>98.3</v>
+        <v>98.49509999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>101.6</v>
+        <v>101.8383</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>98.5087</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>100.7658</v>
+        <v>101.1</v>
       </c>
       <c r="D47" t="n">
-        <v>102.1368</v>
+        <v>102.4</v>
       </c>
       <c r="E47" t="n">
-        <v>102.8537</v>
+        <v>102.8</v>
       </c>
       <c r="F47" t="n">
-        <v>98.1071</v>
+        <v>98.3</v>
       </c>
       <c r="G47" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="H47" t="n">
-        <v>99.6778</v>
+        <v>99.8</v>
       </c>
       <c r="I47" t="n">
-        <v>98.40940000000001</v>
+        <v>98.5</v>
       </c>
       <c r="J47" t="n">
-        <v>101.5642</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>98.5478</v>
+        <v>98.5834</v>
       </c>
       <c r="C48" t="n">
-        <v>100.8499</v>
+        <v>101.3314</v>
       </c>
       <c r="D48" t="n">
-        <v>102.2745</v>
+        <v>102.4498</v>
       </c>
       <c r="E48" t="n">
-        <v>102.9109</v>
+        <v>102.7815</v>
       </c>
       <c r="F48" t="n">
-        <v>98.1641</v>
+        <v>98.29859999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>100.1</v>
+        <v>100.68</v>
       </c>
       <c r="H48" t="n">
-        <v>99.724</v>
+        <v>99.8562</v>
       </c>
       <c r="I48" t="n">
-        <v>98.46639999999999</v>
+        <v>98.56229999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>101.7</v>
+        <v>102.831</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>98.5667</v>
+        <v>98.6066</v>
       </c>
       <c r="C49" t="n">
-        <v>100.9277</v>
+        <v>101.5626</v>
       </c>
       <c r="D49" t="n">
-        <v>102.374</v>
+        <v>102.4824</v>
       </c>
       <c r="E49" t="n">
-        <v>102.85</v>
+        <v>102.7597</v>
       </c>
       <c r="F49" t="n">
-        <v>98.2128</v>
+        <v>98.3473</v>
       </c>
       <c r="G49" t="n">
-        <v>100.17</v>
+        <v>100.98</v>
       </c>
       <c r="H49" t="n">
-        <v>99.7582</v>
+        <v>99.9258</v>
       </c>
       <c r="I49" t="n">
-        <v>98.49509999999999</v>
+        <v>98.5705</v>
       </c>
       <c r="J49" t="n">
-        <v>101.8383</v>
+        <v>103.3942</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>99.7255</v>
+        <v>100.6224</v>
       </c>
       <c r="C50" t="n">
-        <v>105.1274</v>
+        <v>104.3562</v>
       </c>
       <c r="D50" t="n">
-        <v>100.6318</v>
+        <v>102.8204</v>
       </c>
       <c r="E50" t="n">
-        <v>101.7089</v>
+        <v>102.7595</v>
       </c>
       <c r="F50" t="n">
-        <v>99.6348</v>
+        <v>99.1772</v>
       </c>
       <c r="G50" t="n">
-        <v>105.82</v>
+        <v>103.96</v>
       </c>
       <c r="H50" t="n">
-        <v>101.3565</v>
+        <v>100.9919</v>
       </c>
       <c r="I50" t="n">
-        <v>98.4465</v>
+        <v>98.5849</v>
       </c>
       <c r="J50" t="n">
-        <v>112.5811</v>
+        <v>109.67</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>99.7458</v>
+        <v>99.2942</v>
       </c>
       <c r="C51" t="n">
-        <v>104.9881</v>
+        <v>103.8284</v>
       </c>
       <c r="D51" t="n">
-        <v>100.5466</v>
+        <v>102.7252</v>
       </c>
       <c r="E51" t="n">
-        <v>101.8999</v>
+        <v>101.8794</v>
       </c>
       <c r="F51" t="n">
-        <v>99.66889999999999</v>
+        <v>99.268</v>
       </c>
       <c r="G51" t="n">
-        <v>105.83</v>
+        <v>104.1</v>
       </c>
       <c r="H51" t="n">
-        <v>101.3396</v>
+        <v>100.8948</v>
       </c>
       <c r="I51" t="n">
-        <v>98.4361</v>
+        <v>98.4755</v>
       </c>
       <c r="J51" t="n">
-        <v>112.022</v>
+        <v>108.7101</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>99.7667</v>
+        <v>99.32210000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>104.8407</v>
+        <v>103.9618</v>
       </c>
       <c r="D52" t="n">
-        <v>100.4867</v>
+        <v>102.6311</v>
       </c>
       <c r="E52" t="n">
-        <v>102.0968</v>
+        <v>101.5191</v>
       </c>
       <c r="F52" t="n">
-        <v>99.691</v>
+        <v>99.35720000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>105.8</v>
+        <v>104.21</v>
       </c>
       <c r="H52" t="n">
-        <v>101.3024</v>
+        <v>100.8983</v>
       </c>
       <c r="I52" t="n">
-        <v>98.4436</v>
+        <v>98.5026</v>
       </c>
       <c r="J52" t="n">
-        <v>111.4584</v>
+        <v>109.2484</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年1月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>100.6224</v>
+        <v>99.38290000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>104.3562</v>
+        <v>104.1866</v>
       </c>
       <c r="D53" t="n">
-        <v>102.8204</v>
+        <v>102.1314</v>
       </c>
       <c r="E53" t="n">
-        <v>102.7595</v>
+        <v>101.3962</v>
       </c>
       <c r="F53" t="n">
-        <v>99.1772</v>
+        <v>99.4136</v>
       </c>
       <c r="G53" t="n">
-        <v>103.96</v>
+        <v>104.4</v>
       </c>
       <c r="H53" t="n">
-        <v>100.9919</v>
+        <v>100.9444</v>
       </c>
       <c r="I53" t="n">
-        <v>98.5849</v>
+        <v>98.52500000000001</v>
       </c>
       <c r="J53" t="n">
-        <v>109.67</v>
+        <v>110.0496</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>99.2942</v>
+        <v>99.4845</v>
       </c>
       <c r="C54" t="n">
-        <v>103.8284</v>
+        <v>104.3797</v>
       </c>
       <c r="D54" t="n">
-        <v>102.7252</v>
+        <v>101.5843</v>
       </c>
       <c r="E54" t="n">
-        <v>101.8794</v>
+        <v>101.3462</v>
       </c>
       <c r="F54" t="n">
-        <v>99.268</v>
+        <v>99.4551</v>
       </c>
       <c r="G54" t="n">
-        <v>104.1</v>
+        <v>104.65</v>
       </c>
       <c r="H54" t="n">
-        <v>100.8948</v>
+        <v>101.0752</v>
       </c>
       <c r="I54" t="n">
-        <v>98.4755</v>
+        <v>98.5038</v>
       </c>
       <c r="J54" t="n">
-        <v>108.7101</v>
+        <v>110.7087</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>99.32210000000001</v>
+        <v>99.557</v>
       </c>
       <c r="C55" t="n">
-        <v>103.9618</v>
+        <v>104.5821</v>
       </c>
       <c r="D55" t="n">
-        <v>102.6311</v>
+        <v>101.2337</v>
       </c>
       <c r="E55" t="n">
-        <v>101.5191</v>
+        <v>101.2952</v>
       </c>
       <c r="F55" t="n">
-        <v>99.35720000000001</v>
+        <v>99.4954</v>
       </c>
       <c r="G55" t="n">
-        <v>104.21</v>
+        <v>104.89</v>
       </c>
       <c r="H55" t="n">
-        <v>100.8983</v>
+        <v>101.1861</v>
       </c>
       <c r="I55" t="n">
-        <v>98.5026</v>
+        <v>98.4862</v>
       </c>
       <c r="J55" t="n">
-        <v>109.2484</v>
+        <v>111.3799</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>99.38290000000001</v>
+        <v>99.61490000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>104.1866</v>
+        <v>104.7657</v>
       </c>
       <c r="D56" t="n">
-        <v>102.1314</v>
+        <v>100.9814</v>
       </c>
       <c r="E56" t="n">
-        <v>101.3962</v>
+        <v>101.2627</v>
       </c>
       <c r="F56" t="n">
-        <v>99.4136</v>
+        <v>99.5227</v>
       </c>
       <c r="G56" t="n">
-        <v>104.4</v>
+        <v>105.1</v>
       </c>
       <c r="H56" t="n">
-        <v>100.9444</v>
+        <v>101.267</v>
       </c>
       <c r="I56" t="n">
-        <v>98.52500000000001</v>
+        <v>98.4713</v>
       </c>
       <c r="J56" t="n">
-        <v>110.0496</v>
+        <v>111.9812</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>99.4845</v>
+        <v>99.6516</v>
       </c>
       <c r="C57" t="n">
-        <v>104.3797</v>
+        <v>104.9362</v>
       </c>
       <c r="D57" t="n">
-        <v>101.5843</v>
+        <v>100.8285</v>
       </c>
       <c r="E57" t="n">
-        <v>101.3462</v>
+        <v>101.2485</v>
       </c>
       <c r="F57" t="n">
-        <v>99.4551</v>
+        <v>99.5536</v>
       </c>
       <c r="G57" t="n">
-        <v>104.65</v>
+        <v>105.38</v>
       </c>
       <c r="H57" t="n">
-        <v>101.0752</v>
+        <v>101.317</v>
       </c>
       <c r="I57" t="n">
-        <v>98.5038</v>
+        <v>98.4679</v>
       </c>
       <c r="J57" t="n">
-        <v>110.7087</v>
+        <v>112.4245</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>99.557</v>
+        <v>99.6979</v>
       </c>
       <c r="C58" t="n">
-        <v>104.5821</v>
+        <v>105.1008</v>
       </c>
       <c r="D58" t="n">
-        <v>101.2337</v>
+        <v>100.7326</v>
       </c>
       <c r="E58" t="n">
-        <v>101.2952</v>
+        <v>101.4944</v>
       </c>
       <c r="F58" t="n">
-        <v>99.4954</v>
+        <v>99.5958</v>
       </c>
       <c r="G58" t="n">
-        <v>104.89</v>
+        <v>105.63</v>
       </c>
       <c r="H58" t="n">
-        <v>101.1861</v>
+        <v>101.35</v>
       </c>
       <c r="I58" t="n">
-        <v>98.4862</v>
+        <v>98.4678</v>
       </c>
       <c r="J58" t="n">
-        <v>111.3799</v>
+        <v>112.6922</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>99.61490000000001</v>
+        <v>99.7255</v>
       </c>
       <c r="C59" t="n">
-        <v>104.7657</v>
+        <v>105.1274</v>
       </c>
       <c r="D59" t="n">
-        <v>100.9814</v>
+        <v>100.6318</v>
       </c>
       <c r="E59" t="n">
-        <v>101.2627</v>
+        <v>101.7089</v>
       </c>
       <c r="F59" t="n">
-        <v>99.5227</v>
+        <v>99.6348</v>
       </c>
       <c r="G59" t="n">
-        <v>105.1</v>
+        <v>105.82</v>
       </c>
       <c r="H59" t="n">
-        <v>101.267</v>
+        <v>101.3565</v>
       </c>
       <c r="I59" t="n">
-        <v>98.4713</v>
+        <v>98.4465</v>
       </c>
       <c r="J59" t="n">
-        <v>111.9812</v>
+        <v>112.5811</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>99.6516</v>
+        <v>99.7458</v>
       </c>
       <c r="C60" t="n">
-        <v>104.9362</v>
+        <v>104.9881</v>
       </c>
       <c r="D60" t="n">
-        <v>100.8285</v>
+        <v>100.5466</v>
       </c>
       <c r="E60" t="n">
-        <v>101.2485</v>
+        <v>101.8999</v>
       </c>
       <c r="F60" t="n">
-        <v>99.5536</v>
+        <v>99.66889999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>105.38</v>
+        <v>105.83</v>
       </c>
       <c r="H60" t="n">
-        <v>101.317</v>
+        <v>101.3396</v>
       </c>
       <c r="I60" t="n">
-        <v>98.4679</v>
+        <v>98.4361</v>
       </c>
       <c r="J60" t="n">
-        <v>112.4245</v>
+        <v>112.022</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>99.6979</v>
+        <v>99.7667</v>
       </c>
       <c r="C61" t="n">
-        <v>105.1008</v>
+        <v>104.8407</v>
       </c>
       <c r="D61" t="n">
-        <v>100.7326</v>
+        <v>100.4867</v>
       </c>
       <c r="E61" t="n">
-        <v>101.4944</v>
+        <v>102.0968</v>
       </c>
       <c r="F61" t="n">
-        <v>99.5958</v>
+        <v>99.691</v>
       </c>
       <c r="G61" t="n">
-        <v>105.63</v>
+        <v>105.8</v>
       </c>
       <c r="H61" t="n">
-        <v>101.35</v>
+        <v>101.3024</v>
       </c>
       <c r="I61" t="n">
-        <v>98.4678</v>
+        <v>98.4436</v>
       </c>
       <c r="J61" t="n">
-        <v>112.6922</v>
+        <v>111.4584</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>100.1348</v>
+        <v>97.80070000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>102.344</v>
+        <v>102.7536</v>
       </c>
       <c r="D62" t="n">
-        <v>100.2886</v>
+        <v>99.7452</v>
       </c>
       <c r="E62" t="n">
-        <v>104.2001</v>
+        <v>104.2074</v>
       </c>
       <c r="F62" t="n">
-        <v>100.2122</v>
+        <v>99.8309</v>
       </c>
       <c r="G62" t="n">
-        <v>105.31</v>
+        <v>105.65</v>
       </c>
       <c r="H62" t="n">
-        <v>100.5393</v>
+        <v>100.6341</v>
       </c>
       <c r="I62" t="n">
-        <v>98.9811</v>
+        <v>98.71850000000001</v>
       </c>
       <c r="J62" t="n">
-        <v>102.7876</v>
+        <v>104.6649</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>100.2084</v>
+        <v>99.6465</v>
       </c>
       <c r="C63" t="n">
-        <v>102.2542</v>
+        <v>103.6239</v>
       </c>
       <c r="D63" t="n">
-        <v>100.3736</v>
+        <v>99.7809</v>
       </c>
       <c r="E63" t="n">
-        <v>103.9959</v>
+        <v>104.4648</v>
       </c>
       <c r="F63" t="n">
-        <v>100.2412</v>
+        <v>99.8462</v>
       </c>
       <c r="G63" t="n">
-        <v>105.25</v>
+        <v>105.63</v>
       </c>
       <c r="H63" t="n">
-        <v>100.5364</v>
+        <v>100.7095</v>
       </c>
       <c r="I63" t="n">
-        <v>99.0202</v>
+        <v>98.9829</v>
       </c>
       <c r="J63" t="n">
-        <v>102.577</v>
+        <v>106.6473</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>100.2637</v>
+        <v>99.8022</v>
       </c>
       <c r="C64" t="n">
-        <v>102.1948</v>
+        <v>103.538</v>
       </c>
       <c r="D64" t="n">
-        <v>100.4598</v>
+        <v>99.8227</v>
       </c>
       <c r="E64" t="n">
-        <v>103.7835</v>
+        <v>104.5744</v>
       </c>
       <c r="F64" t="n">
-        <v>100.2713</v>
+        <v>99.8626</v>
       </c>
       <c r="G64" t="n">
-        <v>105.22</v>
+        <v>105.66</v>
       </c>
       <c r="H64" t="n">
-        <v>100.5424</v>
+        <v>100.7735</v>
       </c>
       <c r="I64" t="n">
-        <v>99.0523</v>
+        <v>98.8749</v>
       </c>
       <c r="J64" t="n">
-        <v>102.4541</v>
+        <v>106.2984</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年1月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>97.80070000000001</v>
+        <v>99.8262</v>
       </c>
       <c r="C65" t="n">
-        <v>102.7536</v>
+        <v>103.2508</v>
       </c>
       <c r="D65" t="n">
-        <v>99.7452</v>
+        <v>99.8394</v>
       </c>
       <c r="E65" t="n">
-        <v>104.2074</v>
+        <v>104.5986</v>
       </c>
       <c r="F65" t="n">
-        <v>99.8309</v>
+        <v>99.8896</v>
       </c>
       <c r="G65" t="n">
         <v>105.65</v>
       </c>
       <c r="H65" t="n">
-        <v>100.6341</v>
+        <v>100.7764</v>
       </c>
       <c r="I65" t="n">
-        <v>98.71850000000001</v>
+        <v>98.8083</v>
       </c>
       <c r="J65" t="n">
-        <v>104.6649</v>
+        <v>105.4327</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>99.6465</v>
+        <v>99.8326</v>
       </c>
       <c r="C66" t="n">
-        <v>103.6239</v>
+        <v>103.0699</v>
       </c>
       <c r="D66" t="n">
-        <v>99.7809</v>
+        <v>99.87479999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>104.4648</v>
+        <v>104.6087</v>
       </c>
       <c r="F66" t="n">
-        <v>99.8462</v>
+        <v>99.95050000000001</v>
       </c>
       <c r="G66" t="n">
         <v>105.63</v>
       </c>
       <c r="H66" t="n">
-        <v>100.7095</v>
+        <v>100.7041</v>
       </c>
       <c r="I66" t="n">
-        <v>98.9829</v>
+        <v>98.7936</v>
       </c>
       <c r="J66" t="n">
-        <v>106.6473</v>
+        <v>104.888</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>99.8022</v>
+        <v>99.8369</v>
       </c>
       <c r="C67" t="n">
-        <v>103.538</v>
+        <v>102.9223</v>
       </c>
       <c r="D67" t="n">
-        <v>99.8227</v>
+        <v>99.8967</v>
       </c>
       <c r="E67" t="n">
-        <v>104.5744</v>
+        <v>104.6309</v>
       </c>
       <c r="F67" t="n">
-        <v>99.8626</v>
+        <v>100.0231</v>
       </c>
       <c r="G67" t="n">
-        <v>105.66</v>
+        <v>105.62</v>
       </c>
       <c r="H67" t="n">
-        <v>100.7735</v>
+        <v>100.6386</v>
       </c>
       <c r="I67" t="n">
-        <v>98.8749</v>
+        <v>98.8073</v>
       </c>
       <c r="J67" t="n">
-        <v>106.2984</v>
+        <v>104.4255</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>99.8262</v>
+        <v>99.8912</v>
       </c>
       <c r="C68" t="n">
-        <v>103.2508</v>
+        <v>102.8165</v>
       </c>
       <c r="D68" t="n">
-        <v>99.8394</v>
+        <v>100.0199</v>
       </c>
       <c r="E68" t="n">
-        <v>104.5986</v>
+        <v>104.6545</v>
       </c>
       <c r="F68" t="n">
-        <v>99.8896</v>
+        <v>100.0885</v>
       </c>
       <c r="G68" t="n">
-        <v>105.65</v>
+        <v>105.59</v>
       </c>
       <c r="H68" t="n">
-        <v>100.7764</v>
+        <v>100.6072</v>
       </c>
       <c r="I68" t="n">
-        <v>98.8083</v>
+        <v>98.82259999999999</v>
       </c>
       <c r="J68" t="n">
-        <v>105.4327</v>
+        <v>104.0474</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>99.8326</v>
+        <v>99.9652</v>
       </c>
       <c r="C69" t="n">
-        <v>103.0699</v>
+        <v>102.6457</v>
       </c>
       <c r="D69" t="n">
-        <v>99.87479999999999</v>
+        <v>100.0934</v>
       </c>
       <c r="E69" t="n">
-        <v>104.6087</v>
+        <v>104.666</v>
       </c>
       <c r="F69" t="n">
-        <v>99.95050000000001</v>
+        <v>100.1416</v>
       </c>
       <c r="G69" t="n">
-        <v>105.63</v>
+        <v>105.48</v>
       </c>
       <c r="H69" t="n">
-        <v>100.7041</v>
+        <v>100.5685</v>
       </c>
       <c r="I69" t="n">
-        <v>98.7936</v>
+        <v>98.8695</v>
       </c>
       <c r="J69" t="n">
-        <v>104.888</v>
+        <v>103.5315</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>99.8369</v>
+        <v>100.0463</v>
       </c>
       <c r="C70" t="n">
-        <v>102.9223</v>
+        <v>102.4612</v>
       </c>
       <c r="D70" t="n">
-        <v>99.8967</v>
+        <v>100.1851</v>
       </c>
       <c r="E70" t="n">
-        <v>104.6309</v>
+        <v>104.4187</v>
       </c>
       <c r="F70" t="n">
-        <v>100.0231</v>
+        <v>100.1778</v>
       </c>
       <c r="G70" t="n">
-        <v>105.62</v>
+        <v>105.41</v>
       </c>
       <c r="H70" t="n">
-        <v>100.6386</v>
+        <v>100.5445</v>
       </c>
       <c r="I70" t="n">
-        <v>98.8073</v>
+        <v>98.9243</v>
       </c>
       <c r="J70" t="n">
-        <v>104.4255</v>
+        <v>103.0605</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>99.8912</v>
+        <v>100.1348</v>
       </c>
       <c r="C71" t="n">
-        <v>102.8165</v>
+        <v>102.344</v>
       </c>
       <c r="D71" t="n">
-        <v>100.0199</v>
+        <v>100.2886</v>
       </c>
       <c r="E71" t="n">
-        <v>104.6545</v>
+        <v>104.2001</v>
       </c>
       <c r="F71" t="n">
-        <v>100.0885</v>
+        <v>100.2122</v>
       </c>
       <c r="G71" t="n">
-        <v>105.59</v>
+        <v>105.31</v>
       </c>
       <c r="H71" t="n">
-        <v>100.6072</v>
+        <v>100.5393</v>
       </c>
       <c r="I71" t="n">
-        <v>98.82259999999999</v>
+        <v>98.9811</v>
       </c>
       <c r="J71" t="n">
-        <v>104.0474</v>
+        <v>102.7876</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>99.9652</v>
+        <v>100.2084</v>
       </c>
       <c r="C72" t="n">
-        <v>102.6457</v>
+        <v>102.2542</v>
       </c>
       <c r="D72" t="n">
-        <v>100.0934</v>
+        <v>100.3736</v>
       </c>
       <c r="E72" t="n">
-        <v>104.666</v>
+        <v>103.9959</v>
       </c>
       <c r="F72" t="n">
-        <v>100.1416</v>
+        <v>100.2412</v>
       </c>
       <c r="G72" t="n">
-        <v>105.48</v>
+        <v>105.25</v>
       </c>
       <c r="H72" t="n">
-        <v>100.5685</v>
+        <v>100.5364</v>
       </c>
       <c r="I72" t="n">
-        <v>98.8695</v>
+        <v>99.0202</v>
       </c>
       <c r="J72" t="n">
-        <v>103.5315</v>
+        <v>102.577</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>100.0463</v>
+        <v>100.2637</v>
       </c>
       <c r="C73" t="n">
-        <v>102.4612</v>
+        <v>102.1948</v>
       </c>
       <c r="D73" t="n">
-        <v>100.1851</v>
+        <v>100.4598</v>
       </c>
       <c r="E73" t="n">
-        <v>104.4187</v>
+        <v>103.7835</v>
       </c>
       <c r="F73" t="n">
-        <v>100.1778</v>
+        <v>100.2713</v>
       </c>
       <c r="G73" t="n">
-        <v>105.41</v>
+        <v>105.22</v>
       </c>
       <c r="H73" t="n">
-        <v>100.5445</v>
+        <v>100.5424</v>
       </c>
       <c r="I73" t="n">
-        <v>98.9243</v>
+        <v>99.0523</v>
       </c>
       <c r="J73" t="n">
-        <v>103.0605</v>
+        <v>102.4541</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-01</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>101.14788515</v>
+        <v>100.66334239</v>
       </c>
       <c r="C74" t="n">
-        <v>101.22694713</v>
+        <v>101.73851556</v>
       </c>
       <c r="D74" t="n">
-        <v>101.44858536</v>
+        <v>100.52351783</v>
       </c>
       <c r="E74" t="n">
-        <v>98.97437008</v>
+        <v>100.7058506</v>
       </c>
       <c r="F74" t="n">
-        <v>100.89533286</v>
+        <v>100.56128365</v>
       </c>
       <c r="G74" t="n">
-        <v>104.6212512</v>
+        <v>105.03</v>
       </c>
       <c r="H74" t="n">
-        <v>100.18066497</v>
+        <v>100.04308661</v>
       </c>
       <c r="I74" t="n">
-        <v>99.37249262</v>
+        <v>99.01400649</v>
       </c>
       <c r="J74" t="n">
-        <v>101.34608975</v>
+        <v>102.61965466</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>101.23242771</v>
+        <v>100.28132338</v>
       </c>
       <c r="C75" t="n">
-        <v>101.30194456</v>
+        <v>101.28679699</v>
       </c>
       <c r="D75" t="n">
-        <v>101.47489008</v>
+        <v>100.63733418</v>
       </c>
       <c r="E75" t="n">
-        <v>98.7687076</v>
+        <v>100.08860838</v>
       </c>
       <c r="F75" t="n">
-        <v>100.96531829</v>
+        <v>100.54536821</v>
       </c>
       <c r="G75" t="n">
-        <v>104.56312542</v>
+        <v>105.04</v>
       </c>
       <c r="H75" t="n">
-        <v>100.22153467</v>
+        <v>100.04762345</v>
       </c>
       <c r="I75" t="n">
-        <v>99.45595268</v>
+        <v>98.8821392</v>
       </c>
       <c r="J75" t="n">
-        <v>101.61806105</v>
+        <v>101.60257934</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>101.32205363</v>
+        <v>100.33572574</v>
       </c>
       <c r="C76" t="n">
-        <v>101.4551394</v>
+        <v>101.09582517</v>
       </c>
       <c r="D76" t="n">
-        <v>101.48532005</v>
+        <v>100.7599551</v>
       </c>
       <c r="E76" t="n">
-        <v>98.59736126999999</v>
+        <v>99.81568420000001</v>
       </c>
       <c r="F76" t="n">
-        <v>101.04874276</v>
+        <v>100.52459622</v>
       </c>
       <c r="G76" t="n">
-        <v>104.55243384</v>
+        <v>104.86</v>
       </c>
       <c r="H76" t="n">
-        <v>100.30551295</v>
+        <v>100.02710742</v>
       </c>
       <c r="I76" t="n">
-        <v>99.55044801</v>
+        <v>98.95515856999999</v>
       </c>
       <c r="J76" t="n">
-        <v>102.0882425</v>
+        <v>101.14084211</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年1月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>100.66334239</v>
+        <v>100.41570504</v>
       </c>
       <c r="C77" t="n">
-        <v>101.73851556</v>
+        <v>101.10602078</v>
       </c>
       <c r="D77" t="n">
-        <v>100.52351783</v>
+        <v>100.91769724</v>
       </c>
       <c r="E77" t="n">
-        <v>100.7058506</v>
+        <v>99.70301211</v>
       </c>
       <c r="F77" t="n">
-        <v>100.56128365</v>
+        <v>100.55607562</v>
       </c>
       <c r="G77" t="n">
-        <v>105.03</v>
+        <v>104.73</v>
       </c>
       <c r="H77" t="n">
-        <v>100.04308661</v>
+        <v>100.04274859</v>
       </c>
       <c r="I77" t="n">
-        <v>99.01400649</v>
+        <v>99.03192052</v>
       </c>
       <c r="J77" t="n">
-        <v>102.61965466</v>
+        <v>101.17568243</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>100.28132338</v>
+        <v>100.55126989</v>
       </c>
       <c r="C78" t="n">
-        <v>101.28679699</v>
+        <v>101.13285441</v>
       </c>
       <c r="D78" t="n">
-        <v>100.63733418</v>
+        <v>101.08974388</v>
       </c>
       <c r="E78" t="n">
-        <v>100.08860838</v>
+        <v>99.62066072</v>
       </c>
       <c r="F78" t="n">
-        <v>100.54536821</v>
+        <v>100.59981411</v>
       </c>
       <c r="G78" t="n">
-        <v>105.04</v>
+        <v>104.67</v>
       </c>
       <c r="H78" t="n">
-        <v>100.04762345</v>
+        <v>100.04990801</v>
       </c>
       <c r="I78" t="n">
-        <v>98.8821392</v>
+        <v>99.13420965</v>
       </c>
       <c r="J78" t="n">
-        <v>101.60257934</v>
+        <v>101.18720142</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>100.33572574</v>
+        <v>100.75893221</v>
       </c>
       <c r="C79" t="n">
-        <v>101.09582517</v>
+        <v>101.16602045</v>
       </c>
       <c r="D79" t="n">
-        <v>100.7599551</v>
+        <v>101.22299637</v>
       </c>
       <c r="E79" t="n">
-        <v>99.81568420000001</v>
+        <v>99.57270335</v>
       </c>
       <c r="F79" t="n">
-        <v>100.52459622</v>
+        <v>100.65558375</v>
       </c>
       <c r="G79" t="n">
-        <v>104.86</v>
+        <v>104.61864656</v>
       </c>
       <c r="H79" t="n">
-        <v>100.02710742</v>
+        <v>100.05787023</v>
       </c>
       <c r="I79" t="n">
-        <v>98.95515856999999</v>
+        <v>99.19579528</v>
       </c>
       <c r="J79" t="n">
-        <v>101.14084211</v>
+        <v>101.20206308</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>100.41570504</v>
+        <v>100.90441987</v>
       </c>
       <c r="C80" t="n">
-        <v>101.10602078</v>
+        <v>101.16115064</v>
       </c>
       <c r="D80" t="n">
-        <v>100.91769724</v>
+        <v>101.31236233</v>
       </c>
       <c r="E80" t="n">
-        <v>99.70301211</v>
+        <v>99.5669925</v>
       </c>
       <c r="F80" t="n">
-        <v>100.55607562</v>
+        <v>100.7195423</v>
       </c>
       <c r="G80" t="n">
-        <v>104.73</v>
+        <v>104.62284589</v>
       </c>
       <c r="H80" t="n">
-        <v>100.04274859</v>
+        <v>100.07018036</v>
       </c>
       <c r="I80" t="n">
-        <v>99.03192052</v>
+        <v>99.2489566</v>
       </c>
       <c r="J80" t="n">
-        <v>101.17568243</v>
+        <v>101.0865345</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>100.55126989</v>
+        <v>101.0051876</v>
       </c>
       <c r="C81" t="n">
-        <v>101.13285441</v>
+        <v>101.19544562</v>
       </c>
       <c r="D81" t="n">
-        <v>101.08974388</v>
+        <v>101.38531536</v>
       </c>
       <c r="E81" t="n">
-        <v>99.62066072</v>
+        <v>99.53749019</v>
       </c>
       <c r="F81" t="n">
-        <v>100.59981411</v>
+        <v>100.77339134</v>
       </c>
       <c r="G81" t="n">
-        <v>104.67</v>
+        <v>104.65293109</v>
       </c>
       <c r="H81" t="n">
-        <v>100.04990801</v>
+        <v>100.10427606</v>
       </c>
       <c r="I81" t="n">
-        <v>99.13420965</v>
+        <v>99.27148264</v>
       </c>
       <c r="J81" t="n">
-        <v>101.18720142</v>
+        <v>101.11563192</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>100.75893221</v>
+        <v>101.0854057</v>
       </c>
       <c r="C82" t="n">
-        <v>101.16602045</v>
+        <v>101.21493823</v>
       </c>
       <c r="D82" t="n">
-        <v>101.22299637</v>
+        <v>101.41954564</v>
       </c>
       <c r="E82" t="n">
-        <v>99.57270335</v>
+        <v>99.22256984000001</v>
       </c>
       <c r="F82" t="n">
-        <v>100.65558375</v>
+        <v>100.83325178</v>
       </c>
       <c r="G82" t="n">
-        <v>104.61864656</v>
+        <v>104.65537019</v>
       </c>
       <c r="H82" t="n">
-        <v>100.05787023</v>
+        <v>100.1415029</v>
       </c>
       <c r="I82" t="n">
-        <v>99.19579528</v>
+        <v>99.31320735</v>
       </c>
       <c r="J82" t="n">
-        <v>101.20206308</v>
+        <v>101.24804937</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>100.90441987</v>
+        <v>101.14788515</v>
       </c>
       <c r="C83" t="n">
-        <v>101.16115064</v>
+        <v>101.22694713</v>
       </c>
       <c r="D83" t="n">
-        <v>101.31236233</v>
+        <v>101.44858536</v>
       </c>
       <c r="E83" t="n">
-        <v>99.5669925</v>
+        <v>98.97437008</v>
       </c>
       <c r="F83" t="n">
-        <v>100.7195423</v>
+        <v>100.89533286</v>
       </c>
       <c r="G83" t="n">
-        <v>104.62284589</v>
+        <v>104.6212512</v>
       </c>
       <c r="H83" t="n">
-        <v>100.07018036</v>
+        <v>100.18066497</v>
       </c>
       <c r="I83" t="n">
-        <v>99.2489566</v>
+        <v>99.37249262</v>
       </c>
       <c r="J83" t="n">
-        <v>101.0865345</v>
+        <v>101.34608975</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>101.0051876</v>
+        <v>101.23242771</v>
       </c>
       <c r="C84" t="n">
-        <v>101.19544562</v>
+        <v>101.30194456</v>
       </c>
       <c r="D84" t="n">
-        <v>101.38531536</v>
+        <v>101.47489008</v>
       </c>
       <c r="E84" t="n">
-        <v>99.53749019</v>
+        <v>98.7687076</v>
       </c>
       <c r="F84" t="n">
-        <v>100.77339134</v>
+        <v>100.96531829</v>
       </c>
       <c r="G84" t="n">
-        <v>104.65293109</v>
+        <v>104.56312542</v>
       </c>
       <c r="H84" t="n">
-        <v>100.10427606</v>
+        <v>100.22153467</v>
       </c>
       <c r="I84" t="n">
-        <v>99.27148264</v>
+        <v>99.45595268</v>
       </c>
       <c r="J84" t="n">
-        <v>101.11563192</v>
+        <v>101.61806105</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>101.0854057</v>
+        <v>101.32205363</v>
       </c>
       <c r="C85" t="n">
-        <v>101.21493823</v>
+        <v>101.4551394</v>
       </c>
       <c r="D85" t="n">
-        <v>101.41954564</v>
+        <v>101.48532005</v>
       </c>
       <c r="E85" t="n">
-        <v>99.22256984000001</v>
+        <v>98.59736126999999</v>
       </c>
       <c r="F85" t="n">
-        <v>100.83325178</v>
+        <v>101.04874276</v>
       </c>
       <c r="G85" t="n">
-        <v>104.65537019</v>
+        <v>104.55243384</v>
       </c>
       <c r="H85" t="n">
-        <v>100.1415029</v>
+        <v>100.30551295</v>
       </c>
       <c r="I85" t="n">
-        <v>99.31320735</v>
+        <v>99.55044801</v>
       </c>
       <c r="J85" t="n">
-        <v>101.24804937</v>
+        <v>102.0882425</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>100.7</v>
+        <v>101.2127136</v>
       </c>
       <c r="C86" t="n">
-        <v>105</v>
+        <v>102.60887119</v>
       </c>
       <c r="D86" t="n">
-        <v>102.6</v>
+        <v>101.77411608</v>
       </c>
       <c r="E86" t="n">
-        <v>98.2</v>
+        <v>96.59861282999999</v>
       </c>
       <c r="F86" t="n">
-        <v>102.2</v>
+        <v>102.0720505</v>
       </c>
       <c r="G86" t="n">
-        <v>104.1</v>
+        <v>103.80598638</v>
       </c>
       <c r="H86" t="n">
-        <v>101.6</v>
+        <v>101.27723911</v>
       </c>
       <c r="I86" t="n">
-        <v>100.3</v>
+        <v>100.60966928</v>
       </c>
       <c r="J86" t="n">
-        <v>112.6</v>
+        <v>106.1784359</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>100.6885867</v>
+        <v>101.01722782</v>
       </c>
       <c r="C87" t="n">
-        <v>105.20061021</v>
+        <v>102.88151391</v>
       </c>
       <c r="D87" t="n">
-        <v>102.69575654</v>
+        <v>101.89229733</v>
       </c>
       <c r="E87" t="n">
-        <v>98.33733737</v>
+        <v>97.24988557</v>
       </c>
       <c r="F87" t="n">
-        <v>102.14110225</v>
+        <v>102.14795101</v>
       </c>
       <c r="G87" t="n">
-        <v>104.27193377</v>
+        <v>103.80517354</v>
       </c>
       <c r="H87" t="n">
-        <v>101.57835367</v>
+        <v>101.41640189</v>
       </c>
       <c r="I87" t="n">
-        <v>100.22897539</v>
+        <v>100.7211236</v>
       </c>
       <c r="J87" t="n">
-        <v>113.25441445</v>
+        <v>106.67518378</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>100.6266278</v>
+        <v>101.33176647</v>
       </c>
       <c r="C88" t="n">
-        <v>105.3667081</v>
+        <v>103.13194745</v>
       </c>
       <c r="D88" t="n">
-        <v>102.80260382</v>
+        <v>101.9305246</v>
       </c>
       <c r="E88" t="n">
-        <v>98.44386369999999</v>
+        <v>97.5129642</v>
       </c>
       <c r="F88" t="n">
-        <v>102.11163169</v>
+        <v>102.20941809</v>
       </c>
       <c r="G88" t="n">
-        <v>104.44131663</v>
+        <v>103.83955117</v>
       </c>
       <c r="H88" t="n">
-        <v>101.57382088</v>
+        <v>101.48679268</v>
       </c>
       <c r="I88" t="n">
-        <v>100.16263671</v>
+        <v>100.65394011</v>
       </c>
       <c r="J88" t="n">
-        <v>113.63174423</v>
+        <v>107.21595952</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>101.2127136</v>
+        <v>101.38975465</v>
       </c>
       <c r="C89" t="n">
-        <v>102.60887119</v>
+        <v>103.19334343</v>
       </c>
       <c r="D89" t="n">
-        <v>101.77411608</v>
+        <v>101.95871267</v>
       </c>
       <c r="E89" t="n">
-        <v>96.59861282999999</v>
+        <v>97.61892069</v>
       </c>
       <c r="F89" t="n">
-        <v>102.0720505</v>
+        <v>102.20115678</v>
       </c>
       <c r="G89" t="n">
-        <v>103.80598638</v>
+        <v>103.89337397</v>
       </c>
       <c r="H89" t="n">
-        <v>101.27723911</v>
+        <v>101.50017594</v>
       </c>
       <c r="I89" t="n">
-        <v>100.60966928</v>
+        <v>100.61640904</v>
       </c>
       <c r="J89" t="n">
-        <v>106.1784359</v>
+        <v>107.32495535</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>101.01722782</v>
+        <v>101.337947</v>
       </c>
       <c r="C90" t="n">
-        <v>102.88151391</v>
+        <v>103.3376956</v>
       </c>
       <c r="D90" t="n">
-        <v>101.89229733</v>
+        <v>102.017994</v>
       </c>
       <c r="E90" t="n">
-        <v>97.24988557</v>
+        <v>97.70588097</v>
       </c>
       <c r="F90" t="n">
-        <v>102.14795101</v>
+        <v>102.20398823</v>
       </c>
       <c r="G90" t="n">
-        <v>103.80517354</v>
+        <v>103.89675777</v>
       </c>
       <c r="H90" t="n">
-        <v>101.41640189</v>
+        <v>101.52568836</v>
       </c>
       <c r="I90" t="n">
-        <v>100.7211236</v>
+        <v>100.56928689</v>
       </c>
       <c r="J90" t="n">
-        <v>106.67518378</v>
+        <v>107.75081256</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>101.33176647</v>
+        <v>101.1862432</v>
       </c>
       <c r="C91" t="n">
-        <v>103.13194745</v>
+        <v>103.61008993</v>
       </c>
       <c r="D91" t="n">
-        <v>101.9305246</v>
+        <v>102.11049447</v>
       </c>
       <c r="E91" t="n">
-        <v>97.5129642</v>
+        <v>97.75719529</v>
       </c>
       <c r="F91" t="n">
-        <v>102.20941809</v>
+        <v>102.19585414</v>
       </c>
       <c r="G91" t="n">
-        <v>103.83955117</v>
+        <v>103.94181161</v>
       </c>
       <c r="H91" t="n">
-        <v>101.48679268</v>
+        <v>101.54021792</v>
       </c>
       <c r="I91" t="n">
-        <v>100.65394011</v>
+        <v>100.53343671</v>
       </c>
       <c r="J91" t="n">
-        <v>107.21595952</v>
+        <v>108.60064455</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>101.38975465</v>
+        <v>101.04539508</v>
       </c>
       <c r="C92" t="n">
-        <v>103.19334343</v>
+        <v>103.99586628</v>
       </c>
       <c r="D92" t="n">
-        <v>101.95871267</v>
+        <v>102.22386107</v>
       </c>
       <c r="E92" t="n">
-        <v>97.61892069</v>
+        <v>97.7834107</v>
       </c>
       <c r="F92" t="n">
-        <v>102.20115678</v>
+        <v>102.19845519</v>
       </c>
       <c r="G92" t="n">
-        <v>103.89337397</v>
+        <v>103.95783153</v>
       </c>
       <c r="H92" t="n">
-        <v>101.50017594</v>
+        <v>101.55713971</v>
       </c>
       <c r="I92" t="n">
-        <v>100.61640904</v>
+        <v>100.49082255</v>
       </c>
       <c r="J92" t="n">
-        <v>107.32495535</v>
+        <v>109.82682328</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>101.337947</v>
+        <v>100.92205886</v>
       </c>
       <c r="C93" t="n">
-        <v>103.3376956</v>
+        <v>104.40208461</v>
       </c>
       <c r="D93" t="n">
-        <v>102.017994</v>
+        <v>102.32461699</v>
       </c>
       <c r="E93" t="n">
-        <v>97.70588097</v>
+        <v>97.81513768000001</v>
       </c>
       <c r="F93" t="n">
-        <v>102.20398823</v>
+        <v>102.18943392</v>
       </c>
       <c r="G93" t="n">
-        <v>103.89675777</v>
+        <v>103.97420629</v>
       </c>
       <c r="H93" t="n">
-        <v>101.52568836</v>
+        <v>101.56873537</v>
       </c>
       <c r="I93" t="n">
-        <v>100.56928689</v>
+        <v>100.4132576</v>
       </c>
       <c r="J93" t="n">
-        <v>107.75081256</v>
+        <v>111.11792956</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>101.1862432</v>
+        <v>100.82700427</v>
       </c>
       <c r="C94" t="n">
-        <v>103.61008993</v>
+        <v>104.70255968</v>
       </c>
       <c r="D94" t="n">
-        <v>102.11049447</v>
+        <v>102.45435933</v>
       </c>
       <c r="E94" t="n">
-        <v>97.75719529</v>
+        <v>98.03482533</v>
       </c>
       <c r="F94" t="n">
-        <v>102.19585414</v>
+        <v>102.17553592</v>
       </c>
       <c r="G94" t="n">
-        <v>103.94181161</v>
+        <v>103.99979655</v>
       </c>
       <c r="H94" t="n">
-        <v>101.54021792</v>
+        <v>101.57490916</v>
       </c>
       <c r="I94" t="n">
-        <v>100.53343671</v>
+        <v>100.34525175</v>
       </c>
       <c r="J94" t="n">
-        <v>108.60064455</v>
+        <v>111.95590277</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>101.04539508</v>
+        <v>100.7</v>
       </c>
       <c r="C95" t="n">
-        <v>103.99586628</v>
+        <v>105</v>
       </c>
       <c r="D95" t="n">
-        <v>102.22386107</v>
+        <v>102.6</v>
       </c>
       <c r="E95" t="n">
-        <v>97.7834107</v>
+        <v>98.2</v>
       </c>
       <c r="F95" t="n">
-        <v>102.19845519</v>
+        <v>102.2</v>
       </c>
       <c r="G95" t="n">
-        <v>103.95783153</v>
+        <v>104.1</v>
       </c>
       <c r="H95" t="n">
-        <v>101.55713971</v>
+        <v>101.6</v>
       </c>
       <c r="I95" t="n">
-        <v>100.49082255</v>
+        <v>100.3</v>
       </c>
       <c r="J95" t="n">
-        <v>109.82682328</v>
+        <v>112.6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>100.92205886</v>
+        <v>100.6885867</v>
       </c>
       <c r="C96" t="n">
-        <v>104.40208461</v>
+        <v>105.20061021</v>
       </c>
       <c r="D96" t="n">
-        <v>102.32461699</v>
+        <v>102.69575654</v>
       </c>
       <c r="E96" t="n">
-        <v>97.81513768000001</v>
+        <v>98.33733737</v>
       </c>
       <c r="F96" t="n">
-        <v>102.18943392</v>
+        <v>102.14110225</v>
       </c>
       <c r="G96" t="n">
-        <v>103.97420629</v>
+        <v>104.27193377</v>
       </c>
       <c r="H96" t="n">
-        <v>101.56873537</v>
+        <v>101.57835367</v>
       </c>
       <c r="I96" t="n">
-        <v>100.4132576</v>
+        <v>100.22897539</v>
       </c>
       <c r="J96" t="n">
-        <v>111.11792956</v>
+        <v>113.25441445</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>100.82700427</v>
+        <v>100.6266278</v>
       </c>
       <c r="C97" t="n">
-        <v>104.70255968</v>
+        <v>105.3667081</v>
       </c>
       <c r="D97" t="n">
-        <v>102.45435933</v>
+        <v>102.80260382</v>
       </c>
       <c r="E97" t="n">
-        <v>98.03482533</v>
+        <v>98.44386369999999</v>
       </c>
       <c r="F97" t="n">
-        <v>102.17553592</v>
+        <v>102.11163169</v>
       </c>
       <c r="G97" t="n">
-        <v>103.99979655</v>
+        <v>104.44131663</v>
       </c>
       <c r="H97" t="n">
-        <v>101.57490916</v>
+        <v>101.57382088</v>
       </c>
       <c r="I97" t="n">
-        <v>100.34525175</v>
+        <v>100.16263671</v>
       </c>
       <c r="J97" t="n">
-        <v>111.95590277</v>
+        <v>113.63174423</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>100.73232724</v>
+        <v>100.42555597</v>
       </c>
       <c r="C98" t="n">
-        <v>107.34720828</v>
+        <v>107.72089971</v>
       </c>
       <c r="D98" t="n">
-        <v>103.4555716</v>
+        <v>103.89555413</v>
       </c>
       <c r="E98" t="n">
-        <v>99.7197111</v>
+        <v>99.60245251000001</v>
       </c>
       <c r="F98" t="n">
-        <v>102.37799014</v>
+        <v>101.7835124</v>
       </c>
       <c r="G98" t="n">
-        <v>109.02103056</v>
+        <v>106.56131559</v>
       </c>
       <c r="H98" t="n">
-        <v>102.57312301</v>
+        <v>101.95587874</v>
       </c>
       <c r="I98" t="n">
-        <v>99.42448921</v>
+        <v>99.53696078999999</v>
       </c>
       <c r="J98" t="n">
-        <v>116.22867842</v>
+        <v>119.00312171</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>100.7302945</v>
+        <v>100.43533758</v>
       </c>
       <c r="C99" t="n">
-        <v>106.93394603</v>
+        <v>108.48119965</v>
       </c>
       <c r="D99" t="n">
-        <v>103.35048369</v>
+        <v>103.8</v>
       </c>
       <c r="E99" t="n">
-        <v>99.8246496</v>
+        <v>99.45433439</v>
       </c>
       <c r="F99" t="n">
-        <v>102.38766356</v>
+        <v>101.78866255</v>
       </c>
       <c r="G99" t="n">
-        <v>108.65668425</v>
+        <v>106.93262154</v>
       </c>
       <c r="H99" t="n">
-        <v>102.59425665</v>
+        <v>102.1</v>
       </c>
       <c r="I99" t="n">
-        <v>99.403525</v>
+        <v>99.45230479999999</v>
       </c>
       <c r="J99" t="n">
-        <v>115.08370739</v>
+        <v>121.30669343</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>100.67348851</v>
+        <v>100.21626541</v>
       </c>
       <c r="C100" t="n">
-        <v>106.49524301</v>
+        <v>108.66181625</v>
       </c>
       <c r="D100" t="n">
-        <v>103.23400587</v>
+        <v>103.97884541</v>
       </c>
       <c r="E100" t="n">
-        <v>99.90152995</v>
+        <v>99.46547655000001</v>
       </c>
       <c r="F100" t="n">
-        <v>102.37600853</v>
+        <v>101.92199786</v>
       </c>
       <c r="G100" t="n">
-        <v>108.16946119</v>
+        <v>107.32816446</v>
       </c>
       <c r="H100" t="n">
-        <v>102.58417554</v>
+        <v>102.09797041</v>
       </c>
       <c r="I100" t="n">
-        <v>99.35706872</v>
+        <v>99.41467439</v>
       </c>
       <c r="J100" t="n">
-        <v>113.97778744</v>
+        <v>121.69514855</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>100.42555597</v>
+        <v>100.14296378</v>
       </c>
       <c r="C101" t="n">
-        <v>107.72089971</v>
+        <v>108.81469841</v>
       </c>
       <c r="D101" t="n">
-        <v>103.89555413</v>
+        <v>103.99431492</v>
       </c>
       <c r="E101" t="n">
-        <v>99.60245251000001</v>
+        <v>99.46515098</v>
       </c>
       <c r="F101" t="n">
-        <v>101.7835124</v>
+        <v>102.06007486</v>
       </c>
       <c r="G101" t="n">
-        <v>106.56131559</v>
+        <v>107.58274218</v>
       </c>
       <c r="H101" t="n">
-        <v>101.95587874</v>
+        <v>102.1837451</v>
       </c>
       <c r="I101" t="n">
-        <v>99.53696078999999</v>
+        <v>99.39712738</v>
       </c>
       <c r="J101" t="n">
-        <v>119.00312171</v>
+        <v>122.04620699</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>100.43533758</v>
+        <v>100.12343514</v>
       </c>
       <c r="C102" t="n">
-        <v>108.48119965</v>
+        <v>108.76123262</v>
       </c>
       <c r="D102" t="n">
-        <v>103.8</v>
+        <v>103.9260151</v>
       </c>
       <c r="E102" t="n">
-        <v>99.45433439</v>
+        <v>99.4340107</v>
       </c>
       <c r="F102" t="n">
-        <v>101.78866255</v>
+        <v>102.14177202</v>
       </c>
       <c r="G102" t="n">
-        <v>106.93262154</v>
+        <v>107.86801139</v>
       </c>
       <c r="H102" t="n">
-        <v>102.1</v>
+        <v>102.26455249</v>
       </c>
       <c r="I102" t="n">
-        <v>99.45230479999999</v>
+        <v>99.38786053</v>
       </c>
       <c r="J102" t="n">
-        <v>121.30669343</v>
+        <v>121.73507695</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>100.21626541</v>
+        <v>100.20135203</v>
       </c>
       <c r="C103" t="n">
-        <v>108.66181625</v>
+        <v>108.60014153</v>
       </c>
       <c r="D103" t="n">
-        <v>103.97884541</v>
+        <v>103.8399632</v>
       </c>
       <c r="E103" t="n">
-        <v>99.46547655000001</v>
+        <v>99.42709542</v>
       </c>
       <c r="F103" t="n">
-        <v>101.92199786</v>
+        <v>102.18705966</v>
       </c>
       <c r="G103" t="n">
-        <v>107.32816446</v>
+        <v>108.28930888</v>
       </c>
       <c r="H103" t="n">
-        <v>102.09797041</v>
+        <v>102.34691303</v>
       </c>
       <c r="I103" t="n">
-        <v>99.41467439</v>
+        <v>99.36734355</v>
       </c>
       <c r="J103" t="n">
-        <v>121.69514855</v>
+        <v>120.9651644</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>100.14296378</v>
+        <v>100.39281596</v>
       </c>
       <c r="C104" t="n">
-        <v>108.81469841</v>
+        <v>108.34595237</v>
       </c>
       <c r="D104" t="n">
-        <v>103.99431492</v>
+        <v>103.74808203</v>
       </c>
       <c r="E104" t="n">
-        <v>99.46515098</v>
+        <v>99.43896117</v>
       </c>
       <c r="F104" t="n">
-        <v>102.06007486</v>
+        <v>102.22492694</v>
       </c>
       <c r="G104" t="n">
-        <v>107.58274218</v>
+        <v>108.67589604</v>
       </c>
       <c r="H104" t="n">
-        <v>102.1837451</v>
+        <v>102.41638257</v>
       </c>
       <c r="I104" t="n">
-        <v>99.39712738</v>
+        <v>99.37106882</v>
       </c>
       <c r="J104" t="n">
-        <v>122.04620699</v>
+        <v>119.85835854</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>100.12343514</v>
+        <v>100.55117865</v>
       </c>
       <c r="C105" t="n">
-        <v>108.76123262</v>
+        <v>107.97016312</v>
       </c>
       <c r="D105" t="n">
-        <v>103.9260151</v>
+        <v>103.66015984</v>
       </c>
       <c r="E105" t="n">
-        <v>99.4340107</v>
+        <v>99.44779505</v>
       </c>
       <c r="F105" t="n">
-        <v>102.14177202</v>
+        <v>102.27644963</v>
       </c>
       <c r="G105" t="n">
-        <v>107.86801139</v>
+        <v>108.92924286</v>
       </c>
       <c r="H105" t="n">
-        <v>102.26455249</v>
+        <v>102.47481448</v>
       </c>
       <c r="I105" t="n">
-        <v>99.38786053</v>
+        <v>99.41062367000001</v>
       </c>
       <c r="J105" t="n">
-        <v>121.73507695</v>
+        <v>118.43510002</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>100.20135203</v>
+        <v>100.65475132</v>
       </c>
       <c r="C106" t="n">
-        <v>108.60014153</v>
+        <v>107.66333441</v>
       </c>
       <c r="D106" t="n">
-        <v>103.8399632</v>
+        <v>103.55394615</v>
       </c>
       <c r="E106" t="n">
-        <v>99.42709542</v>
+        <v>99.59678477</v>
       </c>
       <c r="F106" t="n">
-        <v>102.18705966</v>
+        <v>102.33659867</v>
       </c>
       <c r="G106" t="n">
-        <v>108.28930888</v>
+        <v>109.07351319</v>
       </c>
       <c r="H106" t="n">
-        <v>102.34691303</v>
+        <v>102.52650995</v>
       </c>
       <c r="I106" t="n">
-        <v>99.36734355</v>
+        <v>99.42299102</v>
       </c>
       <c r="J106" t="n">
-        <v>120.9651644</v>
+        <v>117.27906628</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>100.39281596</v>
+        <v>100.73232724</v>
       </c>
       <c r="C107" t="n">
-        <v>108.34595237</v>
+        <v>107.34720828</v>
       </c>
       <c r="D107" t="n">
-        <v>103.74808203</v>
+        <v>103.4555716</v>
       </c>
       <c r="E107" t="n">
-        <v>99.43896117</v>
+        <v>99.7197111</v>
       </c>
       <c r="F107" t="n">
-        <v>102.22492694</v>
+        <v>102.37799014</v>
       </c>
       <c r="G107" t="n">
-        <v>108.67589604</v>
+        <v>109.02103056</v>
       </c>
       <c r="H107" t="n">
-        <v>102.41638257</v>
+        <v>102.57312301</v>
       </c>
       <c r="I107" t="n">
-        <v>99.37106882</v>
+        <v>99.42448921</v>
       </c>
       <c r="J107" t="n">
-        <v>119.85835854</v>
+        <v>116.22867842</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>100.55117865</v>
+        <v>100.7302945</v>
       </c>
       <c r="C108" t="n">
-        <v>107.97016312</v>
+        <v>106.93394603</v>
       </c>
       <c r="D108" t="n">
-        <v>103.66015984</v>
+        <v>103.35048369</v>
       </c>
       <c r="E108" t="n">
-        <v>99.44779505</v>
+        <v>99.8246496</v>
       </c>
       <c r="F108" t="n">
-        <v>102.27644963</v>
+        <v>102.38766356</v>
       </c>
       <c r="G108" t="n">
-        <v>108.92924286</v>
+        <v>108.65668425</v>
       </c>
       <c r="H108" t="n">
-        <v>102.47481448</v>
+        <v>102.59425665</v>
       </c>
       <c r="I108" t="n">
-        <v>99.41062367000001</v>
+        <v>99.403525</v>
       </c>
       <c r="J108" t="n">
-        <v>118.43510002</v>
+        <v>115.08370739</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>100.65475132</v>
+        <v>100.67348851</v>
       </c>
       <c r="C109" t="n">
-        <v>107.66333441</v>
+        <v>106.49524301</v>
       </c>
       <c r="D109" t="n">
-        <v>103.55394615</v>
+        <v>103.23400587</v>
       </c>
       <c r="E109" t="n">
-        <v>99.59678477</v>
+        <v>99.90152995</v>
       </c>
       <c r="F109" t="n">
-        <v>102.33659867</v>
+        <v>102.37600853</v>
       </c>
       <c r="G109" t="n">
-        <v>109.07351319</v>
+        <v>108.16946119</v>
       </c>
       <c r="H109" t="n">
-        <v>102.52650995</v>
+        <v>102.58417554</v>
       </c>
       <c r="I109" t="n">
-        <v>99.42299102</v>
+        <v>99.35706872</v>
       </c>
       <c r="J109" t="n">
-        <v>117.27906628</v>
+        <v>113.97778744</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>98.11612737</v>
+        <v>98.64499218</v>
       </c>
       <c r="C110" t="n">
-        <v>99.32811812999999</v>
+        <v>101.5037785</v>
       </c>
       <c r="D110" t="n">
-        <v>101.33303346</v>
+        <v>101.87895241</v>
       </c>
       <c r="E110" t="n">
-        <v>100.70421537</v>
+        <v>100.94940702</v>
       </c>
       <c r="F110" t="n">
-        <v>100.15396799</v>
+        <v>101.97079378</v>
       </c>
       <c r="G110" t="n">
-        <v>98.19340825</v>
+        <v>102.22663767</v>
       </c>
       <c r="H110" t="n">
-        <v>101.29989087</v>
+        <v>102.061407</v>
       </c>
       <c r="I110" t="n">
-        <v>98.33707809000001</v>
+        <v>98.35940508</v>
       </c>
       <c r="J110" t="n">
-        <v>99.1787939</v>
+        <v>102.91653672</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>98.11818171</v>
+        <v>98.14331233</v>
       </c>
       <c r="C111" t="n">
-        <v>99.47259248</v>
+        <v>100.31890781</v>
       </c>
       <c r="D111" t="n">
-        <v>101.38565484</v>
+        <v>101.75119499</v>
       </c>
       <c r="E111" t="n">
-        <v>100.66107173</v>
+        <v>100.88314101</v>
       </c>
       <c r="F111" t="n">
-        <v>100.04918675</v>
+        <v>101.79013105</v>
       </c>
       <c r="G111" t="n">
-        <v>98.27699109</v>
+        <v>101.68708839</v>
       </c>
       <c r="H111" t="n">
-        <v>101.27905166</v>
+        <v>101.86404861</v>
       </c>
       <c r="I111" t="n">
-        <v>98.37739026</v>
+        <v>98.14916765</v>
       </c>
       <c r="J111" t="n">
-        <v>99.5721932</v>
+        <v>100.02734158</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>98.18162639000001</v>
+        <v>98.17599409</v>
       </c>
       <c r="C112" t="n">
-        <v>99.68699559</v>
+        <v>99.98969106</v>
       </c>
       <c r="D112" t="n">
-        <v>101.47824935</v>
+        <v>101.58666889</v>
       </c>
       <c r="E112" t="n">
-        <v>100.64159865</v>
+        <v>100.86406371</v>
       </c>
       <c r="F112" t="n">
-        <v>99.97775609999999</v>
+        <v>101.50875553</v>
       </c>
       <c r="G112" t="n">
-        <v>98.51179026</v>
+        <v>101.13982807</v>
       </c>
       <c r="H112" t="n">
-        <v>101.26954047</v>
+        <v>101.74170348</v>
       </c>
       <c r="I112" t="n">
-        <v>98.42941458</v>
+        <v>98.20436376000001</v>
       </c>
       <c r="J112" t="n">
-        <v>100.06330183</v>
+        <v>99.41123568</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>98.64499218</v>
+        <v>98.27075594</v>
       </c>
       <c r="C113" t="n">
-        <v>101.5037785</v>
+        <v>99.7489822</v>
       </c>
       <c r="D113" t="n">
-        <v>101.87895241</v>
+        <v>101.45966108</v>
       </c>
       <c r="E113" t="n">
-        <v>100.94940702</v>
+        <v>100.86500052</v>
       </c>
       <c r="F113" t="n">
-        <v>101.97079378</v>
+        <v>101.23051519</v>
       </c>
       <c r="G113" t="n">
-        <v>102.22663767</v>
+        <v>100.65053468</v>
       </c>
       <c r="H113" t="n">
-        <v>102.061407</v>
+        <v>101.64358173</v>
       </c>
       <c r="I113" t="n">
-        <v>98.35940508</v>
+        <v>98.23206039999999</v>
       </c>
       <c r="J113" t="n">
-        <v>102.91653672</v>
+        <v>98.98562613</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>98.14331233</v>
+        <v>98.31007476000001</v>
       </c>
       <c r="C114" t="n">
-        <v>100.31890781</v>
+        <v>99.59882027</v>
       </c>
       <c r="D114" t="n">
-        <v>101.75119499</v>
+        <v>101.37927506</v>
       </c>
       <c r="E114" t="n">
-        <v>100.88314101</v>
+        <v>100.87221736</v>
       </c>
       <c r="F114" t="n">
-        <v>101.79013105</v>
+        <v>101.00956401</v>
       </c>
       <c r="G114" t="n">
-        <v>101.68708839</v>
+        <v>100.1402842</v>
       </c>
       <c r="H114" t="n">
-        <v>101.86404861</v>
+        <v>101.54662217</v>
       </c>
       <c r="I114" t="n">
-        <v>98.14916765</v>
+        <v>98.26715636</v>
       </c>
       <c r="J114" t="n">
-        <v>100.02734158</v>
+        <v>98.81664961</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>98.17599409</v>
+        <v>98.30774278</v>
       </c>
       <c r="C115" t="n">
-        <v>99.98969106</v>
+        <v>99.42838981</v>
       </c>
       <c r="D115" t="n">
-        <v>101.58666889</v>
+        <v>101.3516687</v>
       </c>
       <c r="E115" t="n">
-        <v>100.86406371</v>
+        <v>100.86917994</v>
       </c>
       <c r="F115" t="n">
-        <v>101.50875553</v>
+        <v>100.82475849</v>
       </c>
       <c r="G115" t="n">
-        <v>101.13982807</v>
+        <v>99.51395340000001</v>
       </c>
       <c r="H115" t="n">
-        <v>101.74170348</v>
+        <v>101.4595912</v>
       </c>
       <c r="I115" t="n">
-        <v>98.20436376000001</v>
+        <v>98.29636263</v>
       </c>
       <c r="J115" t="n">
-        <v>99.41123568</v>
+        <v>98.63136777</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>98.27075594</v>
+        <v>98.2481659</v>
       </c>
       <c r="C116" t="n">
-        <v>99.7489822</v>
+        <v>99.28358917</v>
       </c>
       <c r="D116" t="n">
-        <v>101.45966108</v>
+        <v>101.30960143</v>
       </c>
       <c r="E116" t="n">
-        <v>100.86500052</v>
+        <v>100.84480188</v>
       </c>
       <c r="F116" t="n">
-        <v>101.23051519</v>
+        <v>100.63889421</v>
       </c>
       <c r="G116" t="n">
-        <v>100.65053468</v>
+        <v>98.96691712000001</v>
       </c>
       <c r="H116" t="n">
-        <v>101.64358173</v>
+        <v>101.38494525</v>
       </c>
       <c r="I116" t="n">
-        <v>98.23206039999999</v>
+        <v>98.30246781</v>
       </c>
       <c r="J116" t="n">
-        <v>98.98562613</v>
+        <v>98.52381449000001</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>98.31007476000001</v>
+        <v>98.17498787</v>
       </c>
       <c r="C117" t="n">
-        <v>99.59882027</v>
+        <v>99.24576902</v>
       </c>
       <c r="D117" t="n">
-        <v>101.37927506</v>
+        <v>101.2989173</v>
       </c>
       <c r="E117" t="n">
-        <v>100.87221736</v>
+        <v>100.82847848</v>
       </c>
       <c r="F117" t="n">
-        <v>101.00956401</v>
+        <v>100.46670613</v>
       </c>
       <c r="G117" t="n">
-        <v>100.1402842</v>
+        <v>98.58346950000001</v>
       </c>
       <c r="H117" t="n">
-        <v>101.54662217</v>
+        <v>101.34625705</v>
       </c>
       <c r="I117" t="n">
-        <v>98.26715636</v>
+        <v>98.29728838</v>
       </c>
       <c r="J117" t="n">
-        <v>98.81664961</v>
+        <v>98.65564662</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>98.30774278</v>
+        <v>98.14654616999999</v>
       </c>
       <c r="C118" t="n">
-        <v>99.42838981</v>
+        <v>99.26786059</v>
       </c>
       <c r="D118" t="n">
-        <v>101.3516687</v>
+        <v>101.31209243</v>
       </c>
       <c r="E118" t="n">
-        <v>100.86917994</v>
+        <v>100.75608168</v>
       </c>
       <c r="F118" t="n">
-        <v>100.82475849</v>
+        <v>100.29720638</v>
       </c>
       <c r="G118" t="n">
-        <v>99.51395340000001</v>
+        <v>98.31274635</v>
       </c>
       <c r="H118" t="n">
-        <v>101.4595912</v>
+        <v>101.32234509</v>
       </c>
       <c r="I118" t="n">
-        <v>98.29636263</v>
+        <v>98.30791503</v>
       </c>
       <c r="J118" t="n">
-        <v>98.63136777</v>
+        <v>98.90840308</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>98.2481659</v>
+        <v>98.11612737</v>
       </c>
       <c r="C119" t="n">
-        <v>99.28358917</v>
+        <v>99.32811812999999</v>
       </c>
       <c r="D119" t="n">
-        <v>101.30960143</v>
+        <v>101.33303346</v>
       </c>
       <c r="E119" t="n">
-        <v>100.84480188</v>
+        <v>100.70421537</v>
       </c>
       <c r="F119" t="n">
-        <v>100.63889421</v>
+        <v>100.15396799</v>
       </c>
       <c r="G119" t="n">
-        <v>98.96691712000001</v>
+        <v>98.19340825</v>
       </c>
       <c r="H119" t="n">
-        <v>101.38494525</v>
+        <v>101.29989087</v>
       </c>
       <c r="I119" t="n">
-        <v>98.30246781</v>
+        <v>98.33707809000001</v>
       </c>
       <c r="J119" t="n">
-        <v>98.52381449000001</v>
+        <v>99.1787939</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>98.17498787</v>
+        <v>98.11818171</v>
       </c>
       <c r="C120" t="n">
-        <v>99.24576902</v>
+        <v>99.47259248</v>
       </c>
       <c r="D120" t="n">
-        <v>101.2989173</v>
+        <v>101.38565484</v>
       </c>
       <c r="E120" t="n">
-        <v>100.82847848</v>
+        <v>100.66107173</v>
       </c>
       <c r="F120" t="n">
-        <v>100.46670613</v>
+        <v>100.04918675</v>
       </c>
       <c r="G120" t="n">
-        <v>98.58346950000001</v>
+        <v>98.27699109</v>
       </c>
       <c r="H120" t="n">
-        <v>101.34625705</v>
+        <v>101.27905166</v>
       </c>
       <c r="I120" t="n">
-        <v>98.29728838</v>
+        <v>98.37739026</v>
       </c>
       <c r="J120" t="n">
-        <v>98.65564662</v>
+        <v>99.5721932</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>98.14654616999999</v>
+        <v>98.18162639000001</v>
       </c>
       <c r="C121" t="n">
-        <v>99.26786059</v>
+        <v>99.68699559</v>
       </c>
       <c r="D121" t="n">
-        <v>101.31209243</v>
+        <v>101.47824935</v>
       </c>
       <c r="E121" t="n">
-        <v>100.75608168</v>
+        <v>100.64159865</v>
       </c>
       <c r="F121" t="n">
-        <v>100.29720638</v>
+        <v>99.97775609999999</v>
       </c>
       <c r="G121" t="n">
-        <v>98.31274635</v>
+        <v>98.51179026</v>
       </c>
       <c r="H121" t="n">
-        <v>101.32234509</v>
+        <v>101.26954047</v>
       </c>
       <c r="I121" t="n">
-        <v>98.30791503</v>
+        <v>98.42941458</v>
       </c>
       <c r="J121" t="n">
-        <v>98.90840308</v>
+        <v>100.06330183</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>100.32095317</v>
+        <v>99.8888523</v>
       </c>
       <c r="C122" t="n">
-        <v>103.26133104</v>
+        <v>101.80668399</v>
       </c>
       <c r="D122" t="n">
-        <v>103.1321394</v>
+        <v>102.57347315</v>
       </c>
       <c r="E122" t="n">
-        <v>100.8894556</v>
+        <v>100.31843021</v>
       </c>
       <c r="F122" t="n">
-        <v>99.99383864000001</v>
+        <v>99.35371985</v>
       </c>
       <c r="G122" t="n">
-        <v>104.00596203</v>
+        <v>102.1039494</v>
       </c>
       <c r="H122" t="n">
-        <v>101.3958828</v>
+        <v>101.29156535</v>
       </c>
       <c r="I122" t="n">
-        <v>99.15375231</v>
+        <v>99.11742331000001</v>
       </c>
       <c r="J122" t="n">
-        <v>106.75918007</v>
+        <v>103.839008</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>100.30329778</v>
+        <v>100.31120343</v>
       </c>
       <c r="C123" t="n">
-        <v>103.47609978</v>
+        <v>102.35042436</v>
       </c>
       <c r="D123" t="n">
-        <v>103.20085396</v>
+        <v>102.65284035</v>
       </c>
       <c r="E123" t="n">
-        <v>100.90279865</v>
+        <v>100.57773597</v>
       </c>
       <c r="F123" t="n">
-        <v>100.05896724</v>
+        <v>99.46355708999999</v>
       </c>
       <c r="G123" t="n">
-        <v>104.24543062</v>
+        <v>102.41838865</v>
       </c>
       <c r="H123" t="n">
-        <v>101.39942695</v>
+        <v>101.35359055</v>
       </c>
       <c r="I123" t="n">
-        <v>99.25343366</v>
+        <v>99.17815773</v>
       </c>
       <c r="J123" t="n">
-        <v>107.24743524</v>
+        <v>105.06365817</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>100.28649653</v>
+        <v>100.44330847</v>
       </c>
       <c r="C124" t="n">
-        <v>103.61105987</v>
+        <v>102.44509421</v>
       </c>
       <c r="D124" t="n">
-        <v>103.24524064</v>
+        <v>102.66804913</v>
       </c>
       <c r="E124" t="n">
-        <v>100.90838514</v>
+        <v>100.6271956</v>
       </c>
       <c r="F124" t="n">
-        <v>100.11415528</v>
+        <v>99.5263636</v>
       </c>
       <c r="G124" t="n">
-        <v>104.47453246</v>
+        <v>102.64556118</v>
       </c>
       <c r="H124" t="n">
-        <v>101.41515243</v>
+        <v>101.39522973</v>
       </c>
       <c r="I124" t="n">
-        <v>99.37064096</v>
+        <v>99.13627701</v>
       </c>
       <c r="J124" t="n">
-        <v>107.49172691</v>
+        <v>105.17212189</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>99.8888523</v>
+        <v>100.4910714</v>
       </c>
       <c r="C125" t="n">
-        <v>101.80668399</v>
+        <v>102.59491784</v>
       </c>
       <c r="D125" t="n">
-        <v>102.57347315</v>
+        <v>102.74249219</v>
       </c>
       <c r="E125" t="n">
-        <v>100.31843021</v>
+        <v>100.65906029</v>
       </c>
       <c r="F125" t="n">
-        <v>99.35371985</v>
+        <v>99.60575747999999</v>
       </c>
       <c r="G125" t="n">
-        <v>102.1039494</v>
+        <v>103.03954891</v>
       </c>
       <c r="H125" t="n">
-        <v>101.29156535</v>
+        <v>101.39417729</v>
       </c>
       <c r="I125" t="n">
-        <v>99.11742331000001</v>
+        <v>99.13913117</v>
       </c>
       <c r="J125" t="n">
-        <v>103.839008</v>
+        <v>105.37729584</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>100.31120343</v>
+        <v>100.55629951</v>
       </c>
       <c r="C126" t="n">
-        <v>102.35042436</v>
+        <v>102.73689178</v>
       </c>
       <c r="D126" t="n">
-        <v>102.65284035</v>
+        <v>102.85902843</v>
       </c>
       <c r="E126" t="n">
-        <v>100.57773597</v>
+        <v>100.69254425</v>
       </c>
       <c r="F126" t="n">
-        <v>99.46355708999999</v>
+        <v>99.68345892000001</v>
       </c>
       <c r="G126" t="n">
-        <v>102.41838865</v>
+        <v>103.38784897</v>
       </c>
       <c r="H126" t="n">
-        <v>101.35359055</v>
+        <v>101.40909317</v>
       </c>
       <c r="I126" t="n">
-        <v>99.17815773</v>
+        <v>99.14055424</v>
       </c>
       <c r="J126" t="n">
-        <v>105.06365817</v>
+        <v>105.56139149</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>100.44330847</v>
+        <v>100.52491491</v>
       </c>
       <c r="C127" t="n">
-        <v>102.44509421</v>
+        <v>102.81633235</v>
       </c>
       <c r="D127" t="n">
-        <v>102.66804913</v>
+        <v>102.93311976</v>
       </c>
       <c r="E127" t="n">
-        <v>100.6271956</v>
+        <v>100.73090722</v>
       </c>
       <c r="F127" t="n">
-        <v>99.5263636</v>
+        <v>99.75924983</v>
       </c>
       <c r="G127" t="n">
-        <v>102.64556118</v>
+        <v>103.62330984</v>
       </c>
       <c r="H127" t="n">
-        <v>101.39522973</v>
+        <v>101.4376106</v>
       </c>
       <c r="I127" t="n">
-        <v>99.13627701</v>
+        <v>99.16519384</v>
       </c>
       <c r="J127" t="n">
-        <v>105.17212189</v>
+        <v>105.644544</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>100.4910714</v>
+        <v>100.43205624</v>
       </c>
       <c r="C128" t="n">
-        <v>102.59491784</v>
+        <v>102.91257094</v>
       </c>
       <c r="D128" t="n">
-        <v>102.74249219</v>
+        <v>102.99871815</v>
       </c>
       <c r="E128" t="n">
-        <v>100.65906029</v>
+        <v>100.78335869</v>
       </c>
       <c r="F128" t="n">
-        <v>99.60575747999999</v>
+        <v>99.82206174</v>
       </c>
       <c r="G128" t="n">
-        <v>103.03954891</v>
+        <v>103.76096657</v>
       </c>
       <c r="H128" t="n">
-        <v>101.39417729</v>
+        <v>101.4453343</v>
       </c>
       <c r="I128" t="n">
-        <v>99.13913117</v>
+        <v>99.16098307999999</v>
       </c>
       <c r="J128" t="n">
-        <v>105.37729584</v>
+        <v>105.85968429</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>100.55629951</v>
+        <v>100.38582876</v>
       </c>
       <c r="C129" t="n">
-        <v>102.73689178</v>
+        <v>103.01033327</v>
       </c>
       <c r="D129" t="n">
-        <v>102.85902843</v>
+        <v>103.0408384</v>
       </c>
       <c r="E129" t="n">
-        <v>100.69254425</v>
+        <v>100.82667137</v>
       </c>
       <c r="F129" t="n">
-        <v>99.68345892000001</v>
+        <v>99.88566048</v>
       </c>
       <c r="G129" t="n">
-        <v>103.38784897</v>
+        <v>103.82927715</v>
       </c>
       <c r="H129" t="n">
-        <v>101.40909317</v>
+        <v>101.43019653</v>
       </c>
       <c r="I129" t="n">
-        <v>99.14055424</v>
+        <v>99.11550501000001</v>
       </c>
       <c r="J129" t="n">
-        <v>105.56139149</v>
+        <v>106.11961496</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>100.52491491</v>
+        <v>100.33844463</v>
       </c>
       <c r="C130" t="n">
-        <v>102.81633235</v>
+        <v>103.10545666</v>
       </c>
       <c r="D130" t="n">
-        <v>102.93311976</v>
+        <v>103.07999784</v>
       </c>
       <c r="E130" t="n">
-        <v>100.73090722</v>
+        <v>100.86162452</v>
       </c>
       <c r="F130" t="n">
-        <v>99.75924983</v>
+        <v>99.94050627999999</v>
       </c>
       <c r="G130" t="n">
-        <v>103.62330984</v>
+        <v>103.88493466</v>
       </c>
       <c r="H130" t="n">
-        <v>101.4376106</v>
+        <v>101.40767217</v>
       </c>
       <c r="I130" t="n">
-        <v>99.16519384</v>
+        <v>99.11731164</v>
       </c>
       <c r="J130" t="n">
-        <v>105.644544</v>
+        <v>106.37145257</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>100.43205624</v>
+        <v>100.32095317</v>
       </c>
       <c r="C131" t="n">
-        <v>102.91257094</v>
+        <v>103.26133104</v>
       </c>
       <c r="D131" t="n">
-        <v>102.99871815</v>
+        <v>103.1321394</v>
       </c>
       <c r="E131" t="n">
-        <v>100.78335869</v>
+        <v>100.8894556</v>
       </c>
       <c r="F131" t="n">
-        <v>99.82206174</v>
+        <v>99.99383864000001</v>
       </c>
       <c r="G131" t="n">
-        <v>103.76096657</v>
+        <v>104.00596203</v>
       </c>
       <c r="H131" t="n">
-        <v>101.4453343</v>
+        <v>101.3958828</v>
       </c>
       <c r="I131" t="n">
-        <v>99.16098307999999</v>
+        <v>99.15375231</v>
       </c>
       <c r="J131" t="n">
-        <v>105.85968429</v>
+        <v>106.75918007</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>100.38582876</v>
+        <v>100.30329778</v>
       </c>
       <c r="C132" t="n">
-        <v>103.01033327</v>
+        <v>103.47609978</v>
       </c>
       <c r="D132" t="n">
-        <v>103.0408384</v>
+        <v>103.20085396</v>
       </c>
       <c r="E132" t="n">
-        <v>100.82667137</v>
+        <v>100.90279865</v>
       </c>
       <c r="F132" t="n">
-        <v>99.88566048</v>
+        <v>100.05896724</v>
       </c>
       <c r="G132" t="n">
-        <v>103.82927715</v>
+        <v>104.24543062</v>
       </c>
       <c r="H132" t="n">
-        <v>101.43019653</v>
+        <v>101.39942695</v>
       </c>
       <c r="I132" t="n">
-        <v>99.11550501000001</v>
+        <v>99.25343366</v>
       </c>
       <c r="J132" t="n">
-        <v>106.11961496</v>
+        <v>107.24743524</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>100.33844463</v>
+        <v>100.28649653</v>
       </c>
       <c r="C133" t="n">
-        <v>103.10545666</v>
+        <v>103.61105987</v>
       </c>
       <c r="D133" t="n">
-        <v>103.07999784</v>
+        <v>103.24524064</v>
       </c>
       <c r="E133" t="n">
-        <v>100.86162452</v>
+        <v>100.90838514</v>
       </c>
       <c r="F133" t="n">
-        <v>99.94050627999999</v>
+        <v>100.11415528</v>
       </c>
       <c r="G133" t="n">
-        <v>103.88493466</v>
+        <v>104.47453246</v>
       </c>
       <c r="H133" t="n">
-        <v>101.40767217</v>
+        <v>101.41515243</v>
       </c>
       <c r="I133" t="n">
-        <v>99.11731164</v>
+        <v>99.37064096</v>
       </c>
       <c r="J133" t="n">
-        <v>106.37145257</v>
+        <v>107.49172691</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>101.31561279</v>
+        <v>100.32030522</v>
       </c>
       <c r="C134" t="n">
-        <v>106.15192809</v>
+        <v>105.22941491</v>
       </c>
       <c r="D134" t="n">
-        <v>103.31314744</v>
+        <v>102.91400824</v>
       </c>
       <c r="E134" t="n">
-        <v>100.84267432</v>
+        <v>101.11319451</v>
       </c>
       <c r="F134" t="n">
-        <v>101.41205861</v>
+        <v>100.80008194</v>
       </c>
       <c r="G134" t="n">
-        <v>106.37054656</v>
+        <v>106.97462403</v>
       </c>
       <c r="H134" t="n">
-        <v>102.30197669</v>
+        <v>101.70304857</v>
       </c>
       <c r="I134" t="n">
-        <v>101.54649546</v>
+        <v>100.64736064</v>
       </c>
       <c r="J134" t="n">
-        <v>113.19044355</v>
+        <v>110.7052642</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>101.32334321</v>
+        <v>100.38418593</v>
       </c>
       <c r="C135" t="n">
-        <v>105.98302764</v>
+        <v>105.34716277</v>
       </c>
       <c r="D135" t="n">
-        <v>103.32114919</v>
+        <v>102.7760992</v>
       </c>
       <c r="E135" t="n">
-        <v>100.80890887</v>
+        <v>100.86640171</v>
       </c>
       <c r="F135" t="n">
-        <v>101.44494456</v>
+        <v>100.75326935</v>
       </c>
       <c r="G135" t="n">
-        <v>106.05486306</v>
+        <v>106.91096367</v>
       </c>
       <c r="H135" t="n">
-        <v>102.37615581</v>
+        <v>101.68573287</v>
       </c>
       <c r="I135" t="n">
-        <v>101.70098777</v>
+        <v>100.48494031</v>
       </c>
       <c r="J135" t="n">
-        <v>112.7594816</v>
+        <v>111.2372391</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>101.30461306</v>
+        <v>100.5</v>
       </c>
       <c r="C136" t="n">
-        <v>105.82252444</v>
+        <v>105.5</v>
       </c>
       <c r="D136" t="n">
-        <v>103.29651958</v>
+        <v>102.8</v>
       </c>
       <c r="E136" t="n">
-        <v>100.77188633</v>
+        <v>100.9</v>
       </c>
       <c r="F136" t="n">
-        <v>101.45753533</v>
+        <v>100.9</v>
       </c>
       <c r="G136" t="n">
-        <v>105.73155511</v>
+        <v>106.9</v>
       </c>
       <c r="H136" t="n">
-        <v>102.44833372</v>
+        <v>101.7</v>
       </c>
       <c r="I136" t="n">
-        <v>101.89640669</v>
+        <v>100.6</v>
       </c>
       <c r="J136" t="n">
-        <v>112.37796229</v>
+        <v>111.6</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>100.32030522</v>
+        <v>100.7</v>
       </c>
       <c r="C137" t="n">
-        <v>105.22941491</v>
+        <v>105.6</v>
       </c>
       <c r="D137" t="n">
-        <v>102.91400824</v>
+        <v>102.9</v>
       </c>
       <c r="E137" t="n">
-        <v>101.11319451</v>
+        <v>100.9</v>
       </c>
       <c r="F137" t="n">
-        <v>100.80008194</v>
+        <v>101</v>
       </c>
       <c r="G137" t="n">
-        <v>106.97462403</v>
+        <v>106.9</v>
       </c>
       <c r="H137" t="n">
-        <v>101.70304857</v>
+        <v>101.8</v>
       </c>
       <c r="I137" t="n">
-        <v>100.64736064</v>
+        <v>100.7</v>
       </c>
       <c r="J137" t="n">
-        <v>110.7052642</v>
+        <v>111.8</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>100.38418593</v>
+        <v>100.8</v>
       </c>
       <c r="C138" t="n">
-        <v>105.34716277</v>
+        <v>105.7</v>
       </c>
       <c r="D138" t="n">
-        <v>102.7760992</v>
+        <v>102.9</v>
       </c>
       <c r="E138" t="n">
-        <v>100.86640171</v>
+        <v>100.9</v>
       </c>
       <c r="F138" t="n">
-        <v>100.75326935</v>
+        <v>101.1</v>
       </c>
       <c r="G138" t="n">
-        <v>106.91096367</v>
+        <v>106.9</v>
       </c>
       <c r="H138" t="n">
-        <v>101.68573287</v>
+        <v>101.9</v>
       </c>
       <c r="I138" t="n">
-        <v>100.48494031</v>
+        <v>100.9</v>
       </c>
       <c r="J138" t="n">
-        <v>111.2372391</v>
+        <v>111.9</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>100.5</v>
+        <v>101</v>
       </c>
       <c r="C139" t="n">
-        <v>105.5</v>
+        <v>105.9</v>
       </c>
       <c r="D139" t="n">
-        <v>102.8</v>
+        <v>103</v>
       </c>
       <c r="E139" t="n">
         <v>100.9</v>
       </c>
       <c r="F139" t="n">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="G139" t="n">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="H139" t="n">
-        <v>101.7</v>
+        <v>102</v>
       </c>
       <c r="I139" t="n">
-        <v>100.6</v>
+        <v>101</v>
       </c>
       <c r="J139" t="n">
-        <v>111.6</v>
+        <v>112.6</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>100.7</v>
+        <v>101.09485071</v>
       </c>
       <c r="C140" t="n">
-        <v>105.6</v>
+        <v>106.06228591</v>
       </c>
       <c r="D140" t="n">
-        <v>102.9</v>
+        <v>103.07058283</v>
       </c>
       <c r="E140" t="n">
-        <v>100.9</v>
+        <v>100.95575119</v>
       </c>
       <c r="F140" t="n">
-        <v>101</v>
+        <v>101.22631319</v>
       </c>
       <c r="G140" t="n">
-        <v>106.9</v>
+        <v>106.75423567</v>
       </c>
       <c r="H140" t="n">
-        <v>101.8</v>
+        <v>102.07580083</v>
       </c>
       <c r="I140" t="n">
-        <v>100.7</v>
+        <v>101.08271054</v>
       </c>
       <c r="J140" t="n">
-        <v>111.8</v>
+        <v>113.0191788</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>100.8</v>
+        <v>101.19258375</v>
       </c>
       <c r="C141" t="n">
-        <v>105.7</v>
+        <v>106.13723287</v>
       </c>
       <c r="D141" t="n">
-        <v>102.9</v>
+        <v>103.17758643</v>
       </c>
       <c r="E141" t="n">
-        <v>100.9</v>
+        <v>100.96065832</v>
       </c>
       <c r="F141" t="n">
-        <v>101.1</v>
+        <v>101.29664566</v>
       </c>
       <c r="G141" t="n">
-        <v>106.9</v>
+        <v>106.68523074</v>
       </c>
       <c r="H141" t="n">
-        <v>101.9</v>
+        <v>102.13670028</v>
       </c>
       <c r="I141" t="n">
-        <v>100.9</v>
+        <v>101.22568926</v>
       </c>
       <c r="J141" t="n">
-        <v>111.9</v>
+        <v>113.1606469</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>101</v>
+        <v>101.2734915</v>
       </c>
       <c r="C142" t="n">
-        <v>105.9</v>
+        <v>106.18389643</v>
       </c>
       <c r="D142" t="n">
-        <v>103</v>
+        <v>103.27177278</v>
       </c>
       <c r="E142" t="n">
-        <v>100.9</v>
+        <v>100.89344381</v>
       </c>
       <c r="F142" t="n">
-        <v>101.1</v>
+        <v>101.35958273</v>
       </c>
       <c r="G142" t="n">
-        <v>106.8</v>
+        <v>106.56254414</v>
       </c>
       <c r="H142" t="n">
-        <v>102</v>
+        <v>102.21841839</v>
       </c>
       <c r="I142" t="n">
-        <v>101</v>
+        <v>101.36833244</v>
       </c>
       <c r="J142" t="n">
-        <v>112.6</v>
+        <v>113.27437892</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>101.09485071</v>
+        <v>101.31561279</v>
       </c>
       <c r="C143" t="n">
-        <v>106.06228591</v>
+        <v>106.15192809</v>
       </c>
       <c r="D143" t="n">
-        <v>103.07058283</v>
+        <v>103.31314744</v>
       </c>
       <c r="E143" t="n">
-        <v>100.95575119</v>
+        <v>100.84267432</v>
       </c>
       <c r="F143" t="n">
-        <v>101.22631319</v>
+        <v>101.41205861</v>
       </c>
       <c r="G143" t="n">
-        <v>106.75423567</v>
+        <v>106.37054656</v>
       </c>
       <c r="H143" t="n">
-        <v>102.07580083</v>
+        <v>102.30197669</v>
       </c>
       <c r="I143" t="n">
-        <v>101.08271054</v>
+        <v>101.54649546</v>
       </c>
       <c r="J143" t="n">
-        <v>113.0191788</v>
+        <v>113.19044355</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>101.19258375</v>
+        <v>101.32334321</v>
       </c>
       <c r="C144" t="n">
-        <v>106.13723287</v>
+        <v>105.98302764</v>
       </c>
       <c r="D144" t="n">
-        <v>103.17758643</v>
+        <v>103.32114919</v>
       </c>
       <c r="E144" t="n">
-        <v>100.96065832</v>
+        <v>100.80890887</v>
       </c>
       <c r="F144" t="n">
-        <v>101.29664566</v>
+        <v>101.44494456</v>
       </c>
       <c r="G144" t="n">
-        <v>106.68523074</v>
+        <v>106.05486306</v>
       </c>
       <c r="H144" t="n">
-        <v>102.13670028</v>
+        <v>102.37615581</v>
       </c>
       <c r="I144" t="n">
-        <v>101.22568926</v>
+        <v>101.70098777</v>
       </c>
       <c r="J144" t="n">
-        <v>113.1606469</v>
+        <v>112.7594816</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>101.2734915</v>
+        <v>101.30461306</v>
       </c>
       <c r="C145" t="n">
-        <v>106.18389643</v>
+        <v>105.82252444</v>
       </c>
       <c r="D145" t="n">
-        <v>103.27177278</v>
+        <v>103.29651958</v>
       </c>
       <c r="E145" t="n">
-        <v>100.89344381</v>
+        <v>100.77188633</v>
       </c>
       <c r="F145" t="n">
-        <v>101.35958273</v>
+        <v>101.45753533</v>
       </c>
       <c r="G145" t="n">
-        <v>106.56254414</v>
+        <v>105.73155511</v>
       </c>
       <c r="H145" t="n">
-        <v>102.21841839</v>
+        <v>102.44833372</v>
       </c>
       <c r="I145" t="n">
-        <v>101.36833244</v>
+        <v>101.89640669</v>
       </c>
       <c r="J145" t="n">
-        <v>113.27437892</v>
+        <v>112.37796229</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>100.54746594</v>
+        <v>101.1779772</v>
       </c>
       <c r="C146" t="n">
-        <v>102.59354957</v>
+        <v>104.58079768</v>
       </c>
       <c r="D146" t="n">
-        <v>102.22175704</v>
+        <v>102.91874825</v>
       </c>
       <c r="E146" t="n">
-        <v>100.87611065</v>
+        <v>100.73208743</v>
       </c>
       <c r="F146" t="n">
-        <v>101.51192139</v>
+        <v>101.69165454</v>
       </c>
       <c r="G146" t="n">
-        <v>101.88966405</v>
+        <v>102.11385168</v>
       </c>
       <c r="H146" t="n">
-        <v>102.86357529</v>
+        <v>103.06823234</v>
       </c>
       <c r="I146" t="n">
-        <v>104.06762281</v>
+        <v>103.66313542</v>
       </c>
       <c r="J146" t="n">
-        <v>104.1308945</v>
+        <v>109.88053704</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>100.55363394</v>
+        <v>100.97499729</v>
       </c>
       <c r="C147" t="n">
-        <v>102.53220928</v>
+        <v>103.86729556</v>
       </c>
       <c r="D147" t="n">
-        <v>102.17304471</v>
+        <v>102.8436341</v>
       </c>
       <c r="E147" t="n">
-        <v>100.92186851</v>
+        <v>100.63076629</v>
       </c>
       <c r="F147" t="n">
-        <v>101.48471329</v>
+        <v>101.73730264</v>
       </c>
       <c r="G147" t="n">
-        <v>101.89718194</v>
+        <v>102.1132736</v>
       </c>
       <c r="H147" t="n">
-        <v>102.79088934</v>
+        <v>103.10099555</v>
       </c>
       <c r="I147" t="n">
-        <v>103.9542847</v>
+        <v>103.79938367</v>
       </c>
       <c r="J147" t="n">
-        <v>103.97476874</v>
+        <v>107.67794517</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>100.55661168</v>
+        <v>100.99167878</v>
       </c>
       <c r="C148" t="n">
-        <v>102.53354347</v>
+        <v>103.77104325</v>
       </c>
       <c r="D148" t="n">
-        <v>102.14033983</v>
+        <v>102.80655488</v>
       </c>
       <c r="E148" t="n">
-        <v>100.96628818</v>
+        <v>100.63141759</v>
       </c>
       <c r="F148" t="n">
-        <v>101.47072864</v>
+        <v>101.72382035</v>
       </c>
       <c r="G148" t="n">
-        <v>101.93008045</v>
+        <v>102.15351623</v>
       </c>
       <c r="H148" t="n">
-        <v>102.72663005</v>
+        <v>103.0752971</v>
       </c>
       <c r="I148" t="n">
-        <v>103.79140936</v>
+        <v>103.95934185</v>
       </c>
       <c r="J148" t="n">
-        <v>103.99917322</v>
+        <v>107.32536138</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>101.1779772</v>
+        <v>100.99481606</v>
       </c>
       <c r="C149" t="n">
-        <v>104.58079768</v>
+        <v>103.659996</v>
       </c>
       <c r="D149" t="n">
-        <v>102.91874825</v>
+        <v>102.74848121</v>
       </c>
       <c r="E149" t="n">
-        <v>100.73208743</v>
+        <v>100.64759579</v>
       </c>
       <c r="F149" t="n">
-        <v>101.69165454</v>
+        <v>101.68164575</v>
       </c>
       <c r="G149" t="n">
-        <v>102.11385168</v>
+        <v>102.10598623</v>
       </c>
       <c r="H149" t="n">
-        <v>103.06823234</v>
+        <v>103.0409776</v>
       </c>
       <c r="I149" t="n">
-        <v>103.66313542</v>
+        <v>104.03598971</v>
       </c>
       <c r="J149" t="n">
-        <v>109.88053704</v>
+        <v>107.02077275</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>100.97499729</v>
+        <v>100.91359459</v>
       </c>
       <c r="C150" t="n">
-        <v>103.86729556</v>
+        <v>103.50792438</v>
       </c>
       <c r="D150" t="n">
-        <v>102.8436341</v>
+        <v>102.65996098</v>
       </c>
       <c r="E150" t="n">
-        <v>100.63076629</v>
+        <v>100.64898803</v>
       </c>
       <c r="F150" t="n">
-        <v>101.73730264</v>
+        <v>101.64070959</v>
       </c>
       <c r="G150" t="n">
-        <v>102.1132736</v>
+        <v>102.011965</v>
       </c>
       <c r="H150" t="n">
-        <v>103.10099555</v>
+        <v>103.00819446</v>
       </c>
       <c r="I150" t="n">
-        <v>103.79938367</v>
+        <v>104.04453854</v>
       </c>
       <c r="J150" t="n">
-        <v>107.67794517</v>
+        <v>106.67525945</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>100.99167878</v>
+        <v>100.78771125</v>
       </c>
       <c r="C151" t="n">
-        <v>103.77104325</v>
+        <v>103.25495975</v>
       </c>
       <c r="D151" t="n">
-        <v>102.80655488</v>
+        <v>102.56792695</v>
       </c>
       <c r="E151" t="n">
-        <v>100.63141759</v>
+        <v>100.66900742</v>
       </c>
       <c r="F151" t="n">
-        <v>101.72382035</v>
+        <v>101.61529789</v>
       </c>
       <c r="G151" t="n">
-        <v>102.15351623</v>
+        <v>101.93552961</v>
       </c>
       <c r="H151" t="n">
-        <v>103.0752971</v>
+        <v>103.00188624</v>
       </c>
       <c r="I151" t="n">
-        <v>103.95934185</v>
+        <v>104.08684384</v>
       </c>
       <c r="J151" t="n">
-        <v>107.32536138</v>
+        <v>105.9978995</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>100.99481606</v>
+        <v>100.63725711</v>
       </c>
       <c r="C152" t="n">
-        <v>103.659996</v>
+        <v>102.99940378</v>
       </c>
       <c r="D152" t="n">
-        <v>102.74848121</v>
+        <v>102.47330118</v>
       </c>
       <c r="E152" t="n">
-        <v>100.64759579</v>
+        <v>100.70967056</v>
       </c>
       <c r="F152" t="n">
-        <v>101.68164575</v>
+        <v>101.59902007</v>
       </c>
       <c r="G152" t="n">
-        <v>102.10598623</v>
+        <v>101.90018547</v>
       </c>
       <c r="H152" t="n">
-        <v>103.0409776</v>
+        <v>102.98996211</v>
       </c>
       <c r="I152" t="n">
-        <v>104.03598971</v>
+        <v>104.12189865</v>
       </c>
       <c r="J152" t="n">
-        <v>107.02077275</v>
+        <v>105.2892832</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>100.91359459</v>
+        <v>100.54147965</v>
       </c>
       <c r="C153" t="n">
-        <v>103.50792438</v>
+        <v>102.847536</v>
       </c>
       <c r="D153" t="n">
-        <v>102.65996098</v>
+        <v>102.36088523</v>
       </c>
       <c r="E153" t="n">
-        <v>100.64898803</v>
+        <v>100.72921352</v>
       </c>
       <c r="F153" t="n">
-        <v>101.64070959</v>
+        <v>101.56909408</v>
       </c>
       <c r="G153" t="n">
-        <v>102.011965</v>
+        <v>101.88909323</v>
       </c>
       <c r="H153" t="n">
-        <v>103.00819446</v>
+        <v>102.9837161</v>
       </c>
       <c r="I153" t="n">
-        <v>104.04453854</v>
+        <v>104.13582778</v>
       </c>
       <c r="J153" t="n">
-        <v>106.67525945</v>
+        <v>104.8859455</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>100.78771125</v>
+        <v>100.52349632</v>
       </c>
       <c r="C154" t="n">
-        <v>103.25495975</v>
+        <v>102.71501291</v>
       </c>
       <c r="D154" t="n">
-        <v>102.56792695</v>
+        <v>102.26966882</v>
       </c>
       <c r="E154" t="n">
-        <v>100.66900742</v>
+        <v>100.81287908</v>
       </c>
       <c r="F154" t="n">
-        <v>101.61529789</v>
+        <v>101.54544127</v>
       </c>
       <c r="G154" t="n">
-        <v>101.93552961</v>
+        <v>101.89273056</v>
       </c>
       <c r="H154" t="n">
-        <v>103.00188624</v>
+        <v>102.93202618</v>
       </c>
       <c r="I154" t="n">
-        <v>104.08684384</v>
+        <v>104.13403874</v>
       </c>
       <c r="J154" t="n">
-        <v>105.9978995</v>
+        <v>104.48848915</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>100.63725711</v>
+        <v>100.54746594</v>
       </c>
       <c r="C155" t="n">
-        <v>102.99940378</v>
+        <v>102.59354957</v>
       </c>
       <c r="D155" t="n">
-        <v>102.47330118</v>
+        <v>102.22175704</v>
       </c>
       <c r="E155" t="n">
-        <v>100.70967056</v>
+        <v>100.87611065</v>
       </c>
       <c r="F155" t="n">
-        <v>101.59902007</v>
+        <v>101.51192139</v>
       </c>
       <c r="G155" t="n">
-        <v>101.90018547</v>
+        <v>101.88966405</v>
       </c>
       <c r="H155" t="n">
-        <v>102.98996211</v>
+        <v>102.86357529</v>
       </c>
       <c r="I155" t="n">
-        <v>104.12189865</v>
+        <v>104.06762281</v>
       </c>
       <c r="J155" t="n">
-        <v>105.2892832</v>
+        <v>104.1308945</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>100.54147965</v>
+        <v>100.55363394</v>
       </c>
       <c r="C156" t="n">
-        <v>102.847536</v>
+        <v>102.53220928</v>
       </c>
       <c r="D156" t="n">
-        <v>102.36088523</v>
+        <v>102.17304471</v>
       </c>
       <c r="E156" t="n">
-        <v>100.72921352</v>
+        <v>100.92186851</v>
       </c>
       <c r="F156" t="n">
-        <v>101.56909408</v>
+        <v>101.48471329</v>
       </c>
       <c r="G156" t="n">
-        <v>101.88909323</v>
+        <v>101.89718194</v>
       </c>
       <c r="H156" t="n">
-        <v>102.9837161</v>
+        <v>102.79088934</v>
       </c>
       <c r="I156" t="n">
-        <v>104.13582778</v>
+        <v>103.9542847</v>
       </c>
       <c r="J156" t="n">
-        <v>104.8859455</v>
+        <v>103.97476874</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>100.52349632</v>
+        <v>100.55661168</v>
       </c>
       <c r="C157" t="n">
-        <v>102.71501291</v>
+        <v>102.53354347</v>
       </c>
       <c r="D157" t="n">
-        <v>102.26966882</v>
+        <v>102.14033983</v>
       </c>
       <c r="E157" t="n">
-        <v>100.81287908</v>
+        <v>100.96628818</v>
       </c>
       <c r="F157" t="n">
-        <v>101.54544127</v>
+        <v>101.47072864</v>
       </c>
       <c r="G157" t="n">
-        <v>101.89273056</v>
+        <v>101.93008045</v>
       </c>
       <c r="H157" t="n">
-        <v>102.93202618</v>
+        <v>102.72663005</v>
       </c>
       <c r="I157" t="n">
-        <v>104.13403874</v>
+        <v>103.79140936</v>
       </c>
       <c r="J157" t="n">
-        <v>104.48848915</v>
+        <v>103.99917322</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>100.07324213</v>
+        <v>100.17769884</v>
       </c>
       <c r="C158" t="n">
-        <v>102.75420686</v>
+        <v>102.18344259</v>
       </c>
       <c r="D158" t="n">
-        <v>101.88444739</v>
+        <v>101.69545437</v>
       </c>
       <c r="E158" t="n">
-        <v>101.70102948</v>
+        <v>101.18635554</v>
       </c>
       <c r="F158" t="n">
-        <v>101.28319231</v>
+        <v>101.1993138</v>
       </c>
       <c r="G158" t="n">
-        <v>102.30150751</v>
+        <v>102.18074814</v>
       </c>
       <c r="H158" t="n">
-        <v>100.93548955</v>
+        <v>101.9301671</v>
       </c>
       <c r="I158" t="n">
-        <v>102.58634664</v>
+        <v>102.48423997</v>
       </c>
       <c r="J158" t="n">
-        <v>104.92371649</v>
+        <v>103.35431989</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>100.0525903</v>
+        <v>100.45870005</v>
       </c>
       <c r="C159" t="n">
-        <v>102.78501645</v>
+        <v>102.74031061</v>
       </c>
       <c r="D159" t="n">
-        <v>101.86622352</v>
+        <v>101.8923697</v>
       </c>
       <c r="E159" t="n">
-        <v>101.77548483</v>
+        <v>101.39149678</v>
       </c>
       <c r="F159" t="n">
-        <v>101.28162214</v>
+        <v>101.18109622</v>
       </c>
       <c r="G159" t="n">
-        <v>102.30926247</v>
+        <v>102.21405912</v>
       </c>
       <c r="H159" t="n">
-        <v>100.85291417</v>
+        <v>101.81339269</v>
       </c>
       <c r="I159" t="n">
-        <v>102.55919694</v>
+        <v>102.53315011</v>
       </c>
       <c r="J159" t="n">
-        <v>105.01820476</v>
+        <v>104.78647673</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>100.0640758</v>
+        <v>100.40034968</v>
       </c>
       <c r="C160" t="n">
-        <v>102.76130576</v>
+        <v>102.55844013</v>
       </c>
       <c r="D160" t="n">
-        <v>101.84575698</v>
+        <v>101.91349109</v>
       </c>
       <c r="E160" t="n">
-        <v>101.83867936</v>
+        <v>101.47903403</v>
       </c>
       <c r="F160" t="n">
-        <v>101.28898996</v>
+        <v>101.19981094</v>
       </c>
       <c r="G160" t="n">
-        <v>102.32236362</v>
+        <v>102.19648281</v>
       </c>
       <c r="H160" t="n">
-        <v>100.75470192</v>
+        <v>101.70953211</v>
       </c>
       <c r="I160" t="n">
-        <v>102.54129491</v>
+        <v>102.57940423</v>
       </c>
       <c r="J160" t="n">
-        <v>104.93373118</v>
+        <v>104.24518754</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>100.17769884</v>
+        <v>100.15975161</v>
       </c>
       <c r="C161" t="n">
-        <v>102.18344259</v>
+        <v>102.52839365</v>
       </c>
       <c r="D161" t="n">
-        <v>101.69545437</v>
+        <v>101.92649697</v>
       </c>
       <c r="E161" t="n">
-        <v>101.18635554</v>
+        <v>101.53013537</v>
       </c>
       <c r="F161" t="n">
-        <v>101.1993138</v>
+        <v>101.2286035</v>
       </c>
       <c r="G161" t="n">
-        <v>102.18074814</v>
+        <v>102.16652218</v>
       </c>
       <c r="H161" t="n">
-        <v>101.9301671</v>
+        <v>101.61495353</v>
       </c>
       <c r="I161" t="n">
-        <v>102.48423997</v>
+        <v>102.6382415</v>
       </c>
       <c r="J161" t="n">
-        <v>103.35431989</v>
+        <v>104.22764434</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>100.45870005</v>
+        <v>99.99450899999999</v>
       </c>
       <c r="C162" t="n">
-        <v>102.74031061</v>
+        <v>102.47135834</v>
       </c>
       <c r="D162" t="n">
-        <v>101.8923697</v>
+        <v>101.95343606</v>
       </c>
       <c r="E162" t="n">
-        <v>101.39149678</v>
+        <v>101.56004892</v>
       </c>
       <c r="F162" t="n">
-        <v>101.18109622</v>
+        <v>101.2399259</v>
       </c>
       <c r="G162" t="n">
-        <v>102.21405912</v>
+        <v>102.19015047</v>
       </c>
       <c r="H162" t="n">
-        <v>101.81339269</v>
+        <v>101.49682028</v>
       </c>
       <c r="I162" t="n">
-        <v>102.53315011</v>
+        <v>102.64993333</v>
       </c>
       <c r="J162" t="n">
-        <v>104.78647673</v>
+        <v>104.09552434</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>100.40034968</v>
+        <v>99.96905534</v>
       </c>
       <c r="C163" t="n">
-        <v>102.55844013</v>
+        <v>102.5283144</v>
       </c>
       <c r="D163" t="n">
-        <v>101.91349109</v>
+        <v>101.961365</v>
       </c>
       <c r="E163" t="n">
-        <v>101.47903403</v>
+        <v>101.57146856</v>
       </c>
       <c r="F163" t="n">
-        <v>101.19981094</v>
+        <v>101.25001459</v>
       </c>
       <c r="G163" t="n">
-        <v>102.19648281</v>
+        <v>102.24743673</v>
       </c>
       <c r="H163" t="n">
-        <v>101.70953211</v>
+        <v>101.37762736</v>
       </c>
       <c r="I163" t="n">
-        <v>102.57940423</v>
+        <v>102.63775567</v>
       </c>
       <c r="J163" t="n">
-        <v>104.24518754</v>
+        <v>104.25806372</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>100.15975161</v>
+        <v>100.03661006</v>
       </c>
       <c r="C164" t="n">
-        <v>102.52839365</v>
+        <v>102.58340404</v>
       </c>
       <c r="D164" t="n">
-        <v>101.92649697</v>
+        <v>101.94372556</v>
       </c>
       <c r="E164" t="n">
-        <v>101.53013537</v>
+        <v>101.58114368</v>
       </c>
       <c r="F164" t="n">
-        <v>101.2286035</v>
+        <v>101.25879672</v>
       </c>
       <c r="G164" t="n">
-        <v>102.16652218</v>
+        <v>102.28232605</v>
       </c>
       <c r="H164" t="n">
-        <v>101.61495353</v>
+        <v>101.27075304</v>
       </c>
       <c r="I164" t="n">
-        <v>102.6382415</v>
+        <v>102.61449999</v>
       </c>
       <c r="J164" t="n">
-        <v>104.22764434</v>
+        <v>104.40691885</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>99.99450899999999</v>
+        <v>100.08682461</v>
       </c>
       <c r="C165" t="n">
-        <v>102.47135834</v>
+        <v>102.62028242</v>
       </c>
       <c r="D165" t="n">
-        <v>101.95343606</v>
+        <v>101.93394714</v>
       </c>
       <c r="E165" t="n">
-        <v>101.56004892</v>
+        <v>101.58569215</v>
       </c>
       <c r="F165" t="n">
-        <v>101.2399259</v>
+        <v>101.2673194</v>
       </c>
       <c r="G165" t="n">
-        <v>102.19015047</v>
+        <v>102.29511039</v>
       </c>
       <c r="H165" t="n">
-        <v>101.49682028</v>
+        <v>101.15080419</v>
       </c>
       <c r="I165" t="n">
-        <v>102.64993333</v>
+        <v>102.59568935</v>
       </c>
       <c r="J165" t="n">
-        <v>104.09552434</v>
+        <v>104.51471039</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>99.96905534</v>
+        <v>100.10007661</v>
       </c>
       <c r="C166" t="n">
-        <v>102.5283144</v>
+        <v>102.69054721</v>
       </c>
       <c r="D166" t="n">
-        <v>101.961365</v>
+        <v>101.9132264</v>
       </c>
       <c r="E166" t="n">
-        <v>101.57146856</v>
+        <v>101.61497668</v>
       </c>
       <c r="F166" t="n">
-        <v>101.25001459</v>
+        <v>101.27034887</v>
       </c>
       <c r="G166" t="n">
-        <v>102.24743673</v>
+        <v>102.29516909</v>
       </c>
       <c r="H166" t="n">
-        <v>101.37762736</v>
+        <v>101.03851122</v>
       </c>
       <c r="I166" t="n">
-        <v>102.63775567</v>
+        <v>102.60286047</v>
       </c>
       <c r="J166" t="n">
-        <v>104.25806372</v>
+        <v>104.73002274</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>100.03661006</v>
+        <v>100.07324213</v>
       </c>
       <c r="C167" t="n">
-        <v>102.58340404</v>
+        <v>102.75420686</v>
       </c>
       <c r="D167" t="n">
-        <v>101.94372556</v>
+        <v>101.88444739</v>
       </c>
       <c r="E167" t="n">
-        <v>101.58114368</v>
+        <v>101.70102948</v>
       </c>
       <c r="F167" t="n">
-        <v>101.25879672</v>
+        <v>101.28319231</v>
       </c>
       <c r="G167" t="n">
-        <v>102.28232605</v>
+        <v>102.30150751</v>
       </c>
       <c r="H167" t="n">
-        <v>101.27075304</v>
+        <v>100.93548955</v>
       </c>
       <c r="I167" t="n">
-        <v>102.61449999</v>
+        <v>102.58634664</v>
       </c>
       <c r="J167" t="n">
-        <v>104.40691885</v>
+        <v>104.92371649</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>100.08682461</v>
+        <v>100.0525903</v>
       </c>
       <c r="C168" t="n">
-        <v>102.62028242</v>
+        <v>102.78501645</v>
       </c>
       <c r="D168" t="n">
-        <v>101.93394714</v>
+        <v>101.86622352</v>
       </c>
       <c r="E168" t="n">
-        <v>101.58569215</v>
+        <v>101.77548483</v>
       </c>
       <c r="F168" t="n">
-        <v>101.2673194</v>
+        <v>101.28162214</v>
       </c>
       <c r="G168" t="n">
-        <v>102.29511039</v>
+        <v>102.30926247</v>
       </c>
       <c r="H168" t="n">
-        <v>101.15080419</v>
+        <v>100.85291417</v>
       </c>
       <c r="I168" t="n">
-        <v>102.59568935</v>
+        <v>102.55919694</v>
       </c>
       <c r="J168" t="n">
-        <v>104.51471039</v>
+        <v>105.01820476</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>100.10007661</v>
+        <v>100.0640758</v>
       </c>
       <c r="C169" t="n">
-        <v>102.69054721</v>
+        <v>102.76130576</v>
       </c>
       <c r="D169" t="n">
-        <v>101.9132264</v>
+        <v>101.84575698</v>
       </c>
       <c r="E169" t="n">
-        <v>101.61497668</v>
+        <v>101.83867936</v>
       </c>
       <c r="F169" t="n">
-        <v>101.27034887</v>
+        <v>101.28898996</v>
       </c>
       <c r="G169" t="n">
-        <v>102.29516909</v>
+        <v>102.32236362</v>
       </c>
       <c r="H169" t="n">
-        <v>101.03851122</v>
+        <v>100.75470192</v>
       </c>
       <c r="I169" t="n">
-        <v>102.60286047</v>
+        <v>102.54129491</v>
       </c>
       <c r="J169" t="n">
-        <v>104.73002274</v>
+        <v>104.93373118</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>100.25337859</v>
+        <v>100.40453736</v>
       </c>
       <c r="C170" t="n">
-        <v>101.89001071</v>
+        <v>102.22340379</v>
       </c>
       <c r="D170" t="n">
-        <v>101.48541582</v>
+        <v>101.91446856</v>
       </c>
       <c r="E170" t="n">
-        <v>101.85044758</v>
+        <v>102.6895219</v>
       </c>
       <c r="F170" t="n">
-        <v>101.18433596</v>
+        <v>101.41209834</v>
       </c>
       <c r="G170" t="n">
-        <v>102.116383</v>
+        <v>102.52513897</v>
       </c>
       <c r="H170" t="n">
-        <v>99.53714835</v>
+        <v>99.43138156000001</v>
       </c>
       <c r="I170" t="n">
-        <v>102.34273279</v>
+        <v>102.11032441</v>
       </c>
       <c r="J170" t="n">
-        <v>102.65244266</v>
+        <v>103.01415931</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>100.15894066</v>
+        <v>100.14451134</v>
       </c>
       <c r="C171" t="n">
-        <v>101.83334988</v>
+        <v>101.93829239</v>
       </c>
       <c r="D171" t="n">
-        <v>101.47298174</v>
+        <v>101.72497079</v>
       </c>
       <c r="E171" t="n">
-        <v>101.76068839</v>
+        <v>102.49968766</v>
       </c>
       <c r="F171" t="n">
-        <v>101.18673483</v>
+        <v>101.37641283</v>
       </c>
       <c r="G171" t="n">
-        <v>102.02016822</v>
+        <v>102.49223595</v>
       </c>
       <c r="H171" t="n">
-        <v>99.54655423</v>
+        <v>99.39140661</v>
       </c>
       <c r="I171" t="n">
-        <v>102.35670448</v>
+        <v>102.10996461</v>
       </c>
       <c r="J171" t="n">
-        <v>102.59348603</v>
+        <v>102.3915485</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>100.03381095</v>
+        <v>100.05480286</v>
       </c>
       <c r="C172" t="n">
-        <v>101.79011931</v>
+        <v>101.9865242</v>
       </c>
       <c r="D172" t="n">
-        <v>101.48518088</v>
+        <v>101.66846961</v>
       </c>
       <c r="E172" t="n">
-        <v>101.688163</v>
+        <v>102.34905824</v>
       </c>
       <c r="F172" t="n">
-        <v>101.19079616</v>
+        <v>101.31870471</v>
       </c>
       <c r="G172" t="n">
-        <v>101.9100052</v>
+        <v>102.47020596</v>
       </c>
       <c r="H172" t="n">
-        <v>99.54928801</v>
+        <v>99.4078634</v>
       </c>
       <c r="I172" t="n">
-        <v>102.35183115</v>
+        <v>102.20195565</v>
       </c>
       <c r="J172" t="n">
-        <v>102.58362659</v>
+        <v>102.6195909</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>100.40453736</v>
+        <v>100.10777265</v>
       </c>
       <c r="C173" t="n">
-        <v>102.22340379</v>
+        <v>101.89772093</v>
       </c>
       <c r="D173" t="n">
-        <v>101.91446856</v>
+        <v>101.62731019</v>
       </c>
       <c r="E173" t="n">
-        <v>102.6895219</v>
+        <v>102.23524326</v>
       </c>
       <c r="F173" t="n">
-        <v>101.41209834</v>
+        <v>101.29261158</v>
       </c>
       <c r="G173" t="n">
-        <v>102.52513897</v>
+        <v>102.45267358</v>
       </c>
       <c r="H173" t="n">
-        <v>99.43138156000001</v>
+        <v>99.42582535</v>
       </c>
       <c r="I173" t="n">
-        <v>102.11032441</v>
+        <v>102.2482798</v>
       </c>
       <c r="J173" t="n">
-        <v>103.01415931</v>
+        <v>102.3920357</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>100.14451134</v>
+        <v>100.23791634</v>
       </c>
       <c r="C174" t="n">
-        <v>101.93829239</v>
+        <v>101.98348891</v>
       </c>
       <c r="D174" t="n">
-        <v>101.72497079</v>
+        <v>101.58349472</v>
       </c>
       <c r="E174" t="n">
-        <v>102.49968766</v>
+        <v>102.15768894</v>
       </c>
       <c r="F174" t="n">
-        <v>101.37641283</v>
+        <v>101.27966658</v>
       </c>
       <c r="G174" t="n">
-        <v>102.49223595</v>
+        <v>102.42684142</v>
       </c>
       <c r="H174" t="n">
-        <v>99.39140661</v>
+        <v>99.43773367999999</v>
       </c>
       <c r="I174" t="n">
-        <v>102.10996461</v>
+        <v>102.30677586</v>
       </c>
       <c r="J174" t="n">
-        <v>102.3915485</v>
+        <v>102.64282096</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>100.05480286</v>
+        <v>100.33944477</v>
       </c>
       <c r="C175" t="n">
-        <v>101.9865242</v>
+        <v>102.01021907</v>
       </c>
       <c r="D175" t="n">
-        <v>101.66846961</v>
+        <v>101.53414165</v>
       </c>
       <c r="E175" t="n">
-        <v>102.34905824</v>
+        <v>102.10905481</v>
       </c>
       <c r="F175" t="n">
-        <v>101.31870471</v>
+        <v>101.2524976</v>
       </c>
       <c r="G175" t="n">
-        <v>102.47020596</v>
+        <v>102.37636156</v>
       </c>
       <c r="H175" t="n">
-        <v>99.4078634</v>
+        <v>99.45225401</v>
       </c>
       <c r="I175" t="n">
-        <v>102.20195565</v>
+        <v>102.32406657</v>
       </c>
       <c r="J175" t="n">
-        <v>102.6195909</v>
+        <v>102.74732124</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>100.10777265</v>
+        <v>100.40563409</v>
       </c>
       <c r="C176" t="n">
-        <v>101.89772093</v>
+        <v>102.02882135</v>
       </c>
       <c r="D176" t="n">
-        <v>101.62731019</v>
+        <v>101.50772328</v>
       </c>
       <c r="E176" t="n">
-        <v>102.23524326</v>
+        <v>102.0554864</v>
       </c>
       <c r="F176" t="n">
-        <v>101.29261158</v>
+        <v>101.22792028</v>
       </c>
       <c r="G176" t="n">
-        <v>102.45267358</v>
+        <v>102.32809349</v>
       </c>
       <c r="H176" t="n">
-        <v>99.42582535</v>
+        <v>99.46601919</v>
       </c>
       <c r="I176" t="n">
-        <v>102.2482798</v>
+        <v>102.34249075</v>
       </c>
       <c r="J176" t="n">
-        <v>102.3920357</v>
+        <v>102.83216889</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>100.23791634</v>
+        <v>100.39274916</v>
       </c>
       <c r="C177" t="n">
-        <v>101.98348891</v>
+        <v>102.00735607</v>
       </c>
       <c r="D177" t="n">
-        <v>101.58349472</v>
+        <v>101.50619756</v>
       </c>
       <c r="E177" t="n">
-        <v>102.15768894</v>
+        <v>102.01650685</v>
       </c>
       <c r="F177" t="n">
-        <v>101.27966658</v>
+        <v>101.2034667</v>
       </c>
       <c r="G177" t="n">
-        <v>102.42684142</v>
+        <v>102.26785378</v>
       </c>
       <c r="H177" t="n">
-        <v>99.43773367999999</v>
+        <v>99.48677078999999</v>
       </c>
       <c r="I177" t="n">
-        <v>102.30677586</v>
+        <v>102.34731827</v>
       </c>
       <c r="J177" t="n">
-        <v>102.64282096</v>
+        <v>102.81892357</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>100.33944477</v>
+        <v>100.31991511</v>
       </c>
       <c r="C178" t="n">
-        <v>102.01021907</v>
+        <v>101.94194926</v>
       </c>
       <c r="D178" t="n">
-        <v>101.53414165</v>
+        <v>101.49770737</v>
       </c>
       <c r="E178" t="n">
-        <v>102.10905481</v>
+        <v>101.95328037</v>
       </c>
       <c r="F178" t="n">
-        <v>101.2524976</v>
+        <v>101.19320683</v>
       </c>
       <c r="G178" t="n">
-        <v>102.37636156</v>
+        <v>102.19346252</v>
       </c>
       <c r="H178" t="n">
-        <v>99.45225401</v>
+        <v>99.50850463</v>
       </c>
       <c r="I178" t="n">
-        <v>102.32406657</v>
+        <v>102.32809672</v>
       </c>
       <c r="J178" t="n">
-        <v>102.74732124</v>
+        <v>102.71360915</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>100.40563409</v>
+        <v>100.25337859</v>
       </c>
       <c r="C179" t="n">
-        <v>102.02882135</v>
+        <v>101.89001071</v>
       </c>
       <c r="D179" t="n">
-        <v>101.50772328</v>
+        <v>101.48541582</v>
       </c>
       <c r="E179" t="n">
-        <v>102.0554864</v>
+        <v>101.85044758</v>
       </c>
       <c r="F179" t="n">
-        <v>101.22792028</v>
+        <v>101.18433596</v>
       </c>
       <c r="G179" t="n">
-        <v>102.32809349</v>
+        <v>102.116383</v>
       </c>
       <c r="H179" t="n">
-        <v>99.46601919</v>
+        <v>99.53714835</v>
       </c>
       <c r="I179" t="n">
-        <v>102.34249075</v>
+        <v>102.34273279</v>
       </c>
       <c r="J179" t="n">
-        <v>102.83216889</v>
+        <v>102.65244266</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>100.39274916</v>
+        <v>100.15894066</v>
       </c>
       <c r="C180" t="n">
-        <v>102.00735607</v>
+        <v>101.83334988</v>
       </c>
       <c r="D180" t="n">
-        <v>101.50619756</v>
+        <v>101.47298174</v>
       </c>
       <c r="E180" t="n">
-        <v>102.01650685</v>
+        <v>101.76068839</v>
       </c>
       <c r="F180" t="n">
-        <v>101.2034667</v>
+        <v>101.18673483</v>
       </c>
       <c r="G180" t="n">
-        <v>102.26785378</v>
+        <v>102.02016822</v>
       </c>
       <c r="H180" t="n">
-        <v>99.48677078999999</v>
+        <v>99.54655423</v>
       </c>
       <c r="I180" t="n">
-        <v>102.34731827</v>
+        <v>102.35670448</v>
       </c>
       <c r="J180" t="n">
-        <v>102.81892357</v>
+        <v>102.59348603</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>100.31991511</v>
+        <v>100.03381095</v>
       </c>
       <c r="C181" t="n">
-        <v>101.94194926</v>
+        <v>101.79011931</v>
       </c>
       <c r="D181" t="n">
-        <v>101.49770737</v>
+        <v>101.48518088</v>
       </c>
       <c r="E181" t="n">
-        <v>101.95328037</v>
+        <v>101.688163</v>
       </c>
       <c r="F181" t="n">
-        <v>101.19320683</v>
+        <v>101.19079616</v>
       </c>
       <c r="G181" t="n">
-        <v>102.19346252</v>
+        <v>101.9100052</v>
       </c>
       <c r="H181" t="n">
-        <v>99.50850463</v>
+        <v>99.54928801</v>
       </c>
       <c r="I181" t="n">
-        <v>102.32809672</v>
+        <v>102.35183115</v>
       </c>
       <c r="J181" t="n">
-        <v>102.71360915</v>
+        <v>102.58362659</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>98.01159491999999</v>
+        <v>97.69007071</v>
       </c>
       <c r="C182" t="n">
-        <v>101.25716862</v>
+        <v>100.64689323</v>
       </c>
       <c r="D182" t="n">
-        <v>102.24095814</v>
+        <v>101.76288738</v>
       </c>
       <c r="E182" t="n">
-        <v>101.38109251</v>
+        <v>100.75226844</v>
       </c>
       <c r="F182" t="n">
-        <v>101.01229837</v>
+        <v>101.15918852</v>
       </c>
       <c r="G182" t="n">
-        <v>99.77844909</v>
+        <v>100.46746225</v>
       </c>
       <c r="H182" t="n">
-        <v>101.99009297</v>
+        <v>99.69705906999999</v>
       </c>
       <c r="I182" t="n">
-        <v>102.40435438</v>
+        <v>102.43947167</v>
       </c>
       <c r="J182" t="n">
-        <v>102.41578964</v>
+        <v>100.8951207</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>98.04376864</v>
+        <v>97.81609423</v>
       </c>
       <c r="C183" t="n">
-        <v>101.26193351</v>
+        <v>100.93337196</v>
       </c>
       <c r="D183" t="n">
-        <v>102.30131303</v>
+        <v>102.02161019</v>
       </c>
       <c r="E183" t="n">
-        <v>101.39915679</v>
+        <v>101.03556332</v>
       </c>
       <c r="F183" t="n">
-        <v>100.97401253</v>
+        <v>101.26047922</v>
       </c>
       <c r="G183" t="n">
-        <v>99.7472934</v>
+        <v>100.37177118</v>
       </c>
       <c r="H183" t="n">
-        <v>102.182968</v>
+        <v>99.64250464</v>
       </c>
       <c r="I183" t="n">
-        <v>102.36233805</v>
+        <v>102.43775629</v>
       </c>
       <c r="J183" t="n">
-        <v>102.40796373</v>
+        <v>101.57649597</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>98.07910453</v>
+        <v>97.97177499</v>
       </c>
       <c r="C184" t="n">
-        <v>101.27947535</v>
+        <v>101.0345467</v>
       </c>
       <c r="D184" t="n">
-        <v>102.34885558</v>
+        <v>102.0012734</v>
       </c>
       <c r="E184" t="n">
-        <v>101.41783247</v>
+        <v>101.10599985</v>
       </c>
       <c r="F184" t="n">
-        <v>100.93127462</v>
+        <v>101.23979498</v>
       </c>
       <c r="G184" t="n">
-        <v>99.72697397</v>
+        <v>100.24536882</v>
       </c>
       <c r="H184" t="n">
-        <v>102.34796513</v>
+        <v>99.60533358000001</v>
       </c>
       <c r="I184" t="n">
-        <v>102.32905857</v>
+        <v>102.40876077</v>
       </c>
       <c r="J184" t="n">
-        <v>102.43445576</v>
+        <v>101.89429355</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>97.69007071</v>
+        <v>98.02648551</v>
       </c>
       <c r="C185" t="n">
-        <v>100.64689323</v>
+        <v>101.11088328</v>
       </c>
       <c r="D185" t="n">
-        <v>101.76288738</v>
+        <v>102.03118236</v>
       </c>
       <c r="E185" t="n">
-        <v>100.75226844</v>
+        <v>101.17189193</v>
       </c>
       <c r="F185" t="n">
-        <v>101.15918852</v>
+        <v>101.19785168</v>
       </c>
       <c r="G185" t="n">
-        <v>100.46746225</v>
+        <v>100.12595885</v>
       </c>
       <c r="H185" t="n">
-        <v>99.69705906999999</v>
+        <v>99.5772953</v>
       </c>
       <c r="I185" t="n">
-        <v>102.43947167</v>
+        <v>102.37221624</v>
       </c>
       <c r="J185" t="n">
-        <v>100.8951207</v>
+        <v>102.1602627</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>97.81609423</v>
+        <v>98.12302683999999</v>
       </c>
       <c r="C186" t="n">
-        <v>100.93337196</v>
+        <v>101.096726</v>
       </c>
       <c r="D186" t="n">
-        <v>102.02161019</v>
+        <v>102.05528694</v>
       </c>
       <c r="E186" t="n">
-        <v>101.03556332</v>
+        <v>101.22842844</v>
       </c>
       <c r="F186" t="n">
-        <v>101.26047922</v>
+        <v>101.16198514</v>
       </c>
       <c r="G186" t="n">
-        <v>100.37177118</v>
+        <v>100.0406618</v>
       </c>
       <c r="H186" t="n">
-        <v>99.64250464</v>
+        <v>100.01766608</v>
       </c>
       <c r="I186" t="n">
-        <v>102.43775629</v>
+        <v>102.36551009</v>
       </c>
       <c r="J186" t="n">
-        <v>101.57649597</v>
+        <v>102.07442665</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>97.97177499</v>
+        <v>98.15088883</v>
       </c>
       <c r="C187" t="n">
-        <v>101.0345467</v>
+        <v>101.11675132</v>
       </c>
       <c r="D187" t="n">
-        <v>102.0012734</v>
+        <v>102.11111326</v>
       </c>
       <c r="E187" t="n">
-        <v>101.10599985</v>
+        <v>101.27063999</v>
       </c>
       <c r="F187" t="n">
-        <v>101.23979498</v>
+        <v>101.13089118</v>
       </c>
       <c r="G187" t="n">
-        <v>100.24536882</v>
+        <v>99.98432452</v>
       </c>
       <c r="H187" t="n">
-        <v>99.60533358000001</v>
+        <v>100.66033188</v>
       </c>
       <c r="I187" t="n">
-        <v>102.40876077</v>
+        <v>102.39765043</v>
       </c>
       <c r="J187" t="n">
-        <v>101.89429355</v>
+        <v>102.05487543</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>98.02648551</v>
+        <v>98.12634654999999</v>
       </c>
       <c r="C188" t="n">
-        <v>101.11088328</v>
+        <v>101.16809855</v>
       </c>
       <c r="D188" t="n">
-        <v>102.03118236</v>
+        <v>102.14942093</v>
       </c>
       <c r="E188" t="n">
-        <v>101.17189193</v>
+        <v>101.31012831</v>
       </c>
       <c r="F188" t="n">
-        <v>101.19785168</v>
+        <v>101.09573606</v>
       </c>
       <c r="G188" t="n">
-        <v>100.12595885</v>
+        <v>99.92066957</v>
       </c>
       <c r="H188" t="n">
-        <v>99.5772953</v>
+        <v>101.13044294</v>
       </c>
       <c r="I188" t="n">
-        <v>102.37221624</v>
+        <v>102.42005111</v>
       </c>
       <c r="J188" t="n">
-        <v>102.1602627</v>
+        <v>102.17375448</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>98.12302683999999</v>
+        <v>98.07130017999999</v>
       </c>
       <c r="C189" t="n">
-        <v>101.096726</v>
+        <v>101.2435129</v>
       </c>
       <c r="D189" t="n">
-        <v>102.05528694</v>
+        <v>102.16662925</v>
       </c>
       <c r="E189" t="n">
-        <v>101.22842844</v>
+        <v>101.3432886</v>
       </c>
       <c r="F189" t="n">
-        <v>101.16198514</v>
+        <v>101.0696884</v>
       </c>
       <c r="G189" t="n">
-        <v>100.0406618</v>
+        <v>99.86510997000001</v>
       </c>
       <c r="H189" t="n">
-        <v>100.01766608</v>
+        <v>101.48860543</v>
       </c>
       <c r="I189" t="n">
-        <v>102.36551009</v>
+        <v>102.43247157</v>
       </c>
       <c r="J189" t="n">
-        <v>102.07442665</v>
+        <v>102.38657476</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>98.15088883</v>
+        <v>98.01808591</v>
       </c>
       <c r="C190" t="n">
-        <v>101.11675132</v>
+        <v>101.26695054</v>
       </c>
       <c r="D190" t="n">
-        <v>102.11111326</v>
+        <v>102.20197758</v>
       </c>
       <c r="E190" t="n">
-        <v>101.27063999</v>
+        <v>101.37619093</v>
       </c>
       <c r="F190" t="n">
-        <v>101.13089118</v>
+        <v>101.04195429</v>
       </c>
       <c r="G190" t="n">
-        <v>99.98432452</v>
+        <v>99.82371342</v>
       </c>
       <c r="H190" t="n">
-        <v>100.66033188</v>
+        <v>101.77012754</v>
       </c>
       <c r="I190" t="n">
-        <v>102.39765043</v>
+        <v>102.43672354</v>
       </c>
       <c r="J190" t="n">
-        <v>102.05487543</v>
+        <v>102.4437065</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>98.12634654999999</v>
+        <v>98.01159491999999</v>
       </c>
       <c r="C191" t="n">
-        <v>101.16809855</v>
+        <v>101.25716862</v>
       </c>
       <c r="D191" t="n">
-        <v>102.14942093</v>
+        <v>102.24095814</v>
       </c>
       <c r="E191" t="n">
-        <v>101.31012831</v>
+        <v>101.38109251</v>
       </c>
       <c r="F191" t="n">
-        <v>101.09573606</v>
+        <v>101.01229837</v>
       </c>
       <c r="G191" t="n">
-        <v>99.92066957</v>
+        <v>99.77844909</v>
       </c>
       <c r="H191" t="n">
-        <v>101.13044294</v>
+        <v>101.99009297</v>
       </c>
       <c r="I191" t="n">
-        <v>102.42005111</v>
+        <v>102.40435438</v>
       </c>
       <c r="J191" t="n">
-        <v>102.17375448</v>
+        <v>102.41578964</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>98.07130017999999</v>
+        <v>98.04376864</v>
       </c>
       <c r="C192" t="n">
-        <v>101.2435129</v>
+        <v>101.26193351</v>
       </c>
       <c r="D192" t="n">
-        <v>102.16662925</v>
+        <v>102.30131303</v>
       </c>
       <c r="E192" t="n">
-        <v>101.3432886</v>
+        <v>101.39915679</v>
       </c>
       <c r="F192" t="n">
-        <v>101.0696884</v>
+        <v>100.97401253</v>
       </c>
       <c r="G192" t="n">
-        <v>99.86510997000001</v>
+        <v>99.7472934</v>
       </c>
       <c r="H192" t="n">
-        <v>101.48860543</v>
+        <v>102.182968</v>
       </c>
       <c r="I192" t="n">
-        <v>102.43247157</v>
+        <v>102.36233805</v>
       </c>
       <c r="J192" t="n">
-        <v>102.38657476</v>
+        <v>102.40796373</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>98.01808591</v>
+        <v>98.07910453</v>
       </c>
       <c r="C193" t="n">
-        <v>101.26695054</v>
+        <v>101.27947535</v>
       </c>
       <c r="D193" t="n">
-        <v>102.20197758</v>
+        <v>102.34885558</v>
       </c>
       <c r="E193" t="n">
-        <v>101.37619093</v>
+        <v>101.41783247</v>
       </c>
       <c r="F193" t="n">
-        <v>101.04195429</v>
+        <v>100.93127462</v>
       </c>
       <c r="G193" t="n">
-        <v>99.82371342</v>
+        <v>99.72697397</v>
       </c>
       <c r="H193" t="n">
-        <v>101.77012754</v>
+        <v>102.34796513</v>
       </c>
       <c r="I193" t="n">
-        <v>102.43672354</v>
+        <v>102.32905857</v>
       </c>
       <c r="J193" t="n">
-        <v>102.4437065</v>
+        <v>102.43445576</v>
       </c>
     </row>
   </sheetData>
